--- a/documentos/Entrega 1/Análise Descritiva de Dados/BancoVDE 2023.xlsx
+++ b/documentos/Entrega 1/Análise Descritiva de Dados/BancoVDE 2023.xlsx
@@ -8,48 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\24025889\Desktop\Repositorios\Projeto1\documentos\Entrega 1\Análise Descritiva de Dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A4C8F3B-981C-4EC9-9EB5-051002120A74}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3B2FBC0-84EB-4F29-8A32-70949055E238}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Base de Dados" sheetId="2" r:id="rId1"/>
-    <sheet name="DashBord" sheetId="3" r:id="rId2"/>
-    <sheet name="Planilha3" sheetId="4" r:id="rId3"/>
+    <sheet name="por Mês" sheetId="3" r:id="rId2"/>
+    <sheet name="por Estado" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">DashBord!$A$15:$A$41</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">DashBord!$B$14</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">DashBord!$B$15:$B$41</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">DashBord!$A$2:$A$13</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">DashBord!$B$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">DashBord!$B$2:$B$13</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">DashBord!$A$2:$A$13</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">DashBord!$B$1</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">DashBord!$B$2:$B$13</definedName>
-    <definedName name="SegmentaçãodeDados_Meses">#N/A</definedName>
-    <definedName name="SegmentaçãodeDados_UF">#N/A</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'por Mês'!$A$2:$A$13</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'por Mês'!$B$1</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'por Mês'!$B$2:$B$13</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'por Estado'!$A$2:$A$28</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'por Estado'!$B$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'por Estado'!$B$2:$B$28</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
-  <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
-  </pivotCaches>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
-      <x14:slicerCaches>
-        <x14:slicerCache r:id="rId5"/>
-        <x14:slicerCache r:id="rId6"/>
-      </x14:slicerCaches>
-    </ext>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="48">
   <si>
     <t>MG</t>
   </si>
@@ -147,9 +128,6 @@
     <t>TOTAL DE CASOS</t>
   </si>
   <si>
-    <t>Total Geral</t>
-  </si>
-  <si>
     <t>Soma de TOTAL DE CASOS</t>
   </si>
   <si>
@@ -189,10 +167,13 @@
     <t>dez</t>
   </si>
   <si>
-    <t>MÊS</t>
+    <t>Mês</t>
   </si>
   <si>
-    <t>Mês</t>
+    <t>Média</t>
+  </si>
+  <si>
+    <t>95º Percentil</t>
   </si>
 </sst>
 </file>
@@ -703,7 +684,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="13" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -713,11 +694,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -794,10 +770,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.6</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.8</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -835,7 +811,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{E6D1ED59-CCC9-4703-95E6-01A82BBCB05C}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.7</cx:f>
+              <cx:f>_xlchart.v1.1</cx:f>
               <cx:v>Soma de TOTAL DE CASOS</cx:v>
             </cx:txData>
           </cx:tx>
@@ -938,10 +914,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.0</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.2</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -979,7 +955,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{50FC7C98-132A-47F7-832B-FB4688A5D6BB}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.1</cx:f>
+              <cx:f>_xlchart.v1.4</cx:f>
               <cx:v>Soma de TOTAL DE CASOS</cx:v>
             </cx:txData>
           </cx:tx>
@@ -2196,15 +2172,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>271462</xdr:colOff>
+      <xdr:colOff>157162</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>576262</xdr:colOff>
+      <xdr:colOff>461962</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -2240,85 +2216,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2185987" y="133350"/>
-              <a:ext cx="4572000" cy="2743200"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:prstClr val="white"/>
-            </a:solidFill>
-            <a:ln w="1">
-              <a:solidFill>
-                <a:prstClr val="green"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="pt-BR" sz="1100"/>
-                <a:t>Este gráfico não está disponível na sua versão de Excel.
-Editar esta forma ou salvar esta pasta de trabalho em um formato de arquivo diferente quebrará o gráfico permanentemente.</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>280987</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>585787</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="4" name="Gráfico 3">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84AE5117-4DF7-4192-BA15-91FA943AC28C}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvGraphicFramePr/>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="0" y="0"/>
-            <a:ext cx="0" cy="0"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
-              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
-            <xdr:cNvSpPr>
-              <a:spLocks noTextEdit="1"/>
-            </xdr:cNvSpPr>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="2195512" y="3305175"/>
+              <a:off x="2071687" y="142875"/>
               <a:ext cx="4572000" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2354,27 +2252,27 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="6" name="Meses">
+            <xdr:cNvPr id="2" name="Gráfico 1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31FD5C0D-AA6C-4C9F-BB28-9E949B2B3EC7}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74B26E40-936C-46A2-9D20-548DC0FBACD3}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2385,13 +2283,13 @@
             <a:ext cx="0" cy="0"/>
           </xdr:xfrm>
           <a:graphic>
-            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
-              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Meses"/>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
             </a:graphicData>
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -2401,8 +2299,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="6915150" y="123825"/>
-              <a:ext cx="1828800" cy="2524125"/>
+              <a:off x="2009775" y="104775"/>
+              <a:ext cx="4572000" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2422,86 +2320,8 @@
             <a:p>
               <a:r>
                 <a:rPr lang="pt-BR" sz="1100"/>
-                <a:t>Esta forma representa uma segmentação de dados. Segmentações de dados têm suporte no Excel 2010 ou versões posteriores.
-\Se a forma tiver sido modificada em uma versão anterior do Excel, ou se a pasta de trabalho tiver sido salva no Excel 2003 ou versões anteriores, a segmentação de dados não poderá ser usada.</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="7" name="UF">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF05E14C-2885-4BEA-B77F-605AD787BACB}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvGraphicFramePr/>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="0" y="0"/>
-            <a:ext cx="0" cy="0"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
-              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="UF"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
-            <xdr:cNvSpPr>
-              <a:spLocks noTextEdit="1"/>
-            </xdr:cNvSpPr>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="2552700" y="133350"/>
-              <a:ext cx="1352550" cy="3581400"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:prstClr val="white"/>
-            </a:solidFill>
-            <a:ln w="1">
-              <a:solidFill>
-                <a:prstClr val="green"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="pt-BR" sz="1100"/>
-                <a:t>Esta forma representa uma segmentação de dados. Segmentações de dados têm suporte no Excel 2010 ou versões posteriores.
-\Se a forma tiver sido modificada em uma versão anterior do Excel, ou se a pasta de trabalho tiver sido salva no Excel 2003 ou versões anteriores, a segmentação de dados não poderá ser usada.</a:t>
+                <a:t>Este gráfico não está disponível na sua versão de Excel.
+Editar esta forma ou salvar esta pasta de trabalho em um formato de arquivo diferente quebrará o gráfico permanentemente.</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -2511,3524 +2331,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Duda Lucena Miguel" refreshedDate="45726.927000694443" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="324" xr:uid="{C35ADC32-58D0-4FB9-B96F-364461F57F5B}">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="A1:D325" sheet="Base de Dados"/>
-  </cacheSource>
-  <cacheFields count="5">
-    <cacheField name="UF" numFmtId="0">
-      <sharedItems count="27">
-        <s v="AC"/>
-        <s v="AL"/>
-        <s v="AM"/>
-        <s v="AP"/>
-        <s v="BA"/>
-        <s v="CE"/>
-        <s v="DF"/>
-        <s v="ES"/>
-        <s v="GO"/>
-        <s v="MA"/>
-        <s v="MG"/>
-        <s v="MS"/>
-        <s v="MT"/>
-        <s v="PA"/>
-        <s v="PB"/>
-        <s v="PE"/>
-        <s v="PI"/>
-        <s v="PR"/>
-        <s v="RJ"/>
-        <s v="RN"/>
-        <s v="RO"/>
-        <s v="RR"/>
-        <s v="RS"/>
-        <s v="SC"/>
-        <s v="SE"/>
-        <s v="SP"/>
-        <s v="TO"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="EVENTO" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="DATA DE REFERÊNCIA" numFmtId="14">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2023-01-01T00:00:00" maxDate="2023-12-02T00:00:00" count="12">
-        <d v="2023-01-01T00:00:00"/>
-        <d v="2023-02-01T00:00:00"/>
-        <d v="2023-03-01T00:00:00"/>
-        <d v="2023-04-01T00:00:00"/>
-        <d v="2023-05-01T00:00:00"/>
-        <d v="2023-06-01T00:00:00"/>
-        <d v="2023-07-01T00:00:00"/>
-        <d v="2023-08-01T00:00:00"/>
-        <d v="2023-09-01T00:00:00"/>
-        <d v="2023-10-01T00:00:00"/>
-        <d v="2023-11-01T00:00:00"/>
-        <d v="2023-12-01T00:00:00"/>
-      </sharedItems>
-      <fieldGroup par="4" base="2">
-        <rangePr groupBy="days" startDate="2023-01-01T00:00:00" endDate="2023-12-02T00:00:00"/>
-        <groupItems count="368">
-          <s v="&lt;01/01/2023"/>
-          <s v="01/jan"/>
-          <s v="02/jan"/>
-          <s v="03/jan"/>
-          <s v="04/jan"/>
-          <s v="05/jan"/>
-          <s v="06/jan"/>
-          <s v="07/jan"/>
-          <s v="08/jan"/>
-          <s v="09/jan"/>
-          <s v="10/jan"/>
-          <s v="11/jan"/>
-          <s v="12/jan"/>
-          <s v="13/jan"/>
-          <s v="14/jan"/>
-          <s v="15/jan"/>
-          <s v="16/jan"/>
-          <s v="17/jan"/>
-          <s v="18/jan"/>
-          <s v="19/jan"/>
-          <s v="20/jan"/>
-          <s v="21/jan"/>
-          <s v="22/jan"/>
-          <s v="23/jan"/>
-          <s v="24/jan"/>
-          <s v="25/jan"/>
-          <s v="26/jan"/>
-          <s v="27/jan"/>
-          <s v="28/jan"/>
-          <s v="29/jan"/>
-          <s v="30/jan"/>
-          <s v="31/jan"/>
-          <s v="01/fev"/>
-          <s v="02/fev"/>
-          <s v="03/fev"/>
-          <s v="04/fev"/>
-          <s v="05/fev"/>
-          <s v="06/fev"/>
-          <s v="07/fev"/>
-          <s v="08/fev"/>
-          <s v="09/fev"/>
-          <s v="10/fev"/>
-          <s v="11/fev"/>
-          <s v="12/fev"/>
-          <s v="13/fev"/>
-          <s v="14/fev"/>
-          <s v="15/fev"/>
-          <s v="16/fev"/>
-          <s v="17/fev"/>
-          <s v="18/fev"/>
-          <s v="19/fev"/>
-          <s v="20/fev"/>
-          <s v="21/fev"/>
-          <s v="22/fev"/>
-          <s v="23/fev"/>
-          <s v="24/fev"/>
-          <s v="25/fev"/>
-          <s v="26/fev"/>
-          <s v="27/fev"/>
-          <s v="28/fev"/>
-          <s v="29/fev"/>
-          <s v="01/mar"/>
-          <s v="02/mar"/>
-          <s v="03/mar"/>
-          <s v="04/mar"/>
-          <s v="05/mar"/>
-          <s v="06/mar"/>
-          <s v="07/mar"/>
-          <s v="08/mar"/>
-          <s v="09/mar"/>
-          <s v="10/mar"/>
-          <s v="11/mar"/>
-          <s v="12/mar"/>
-          <s v="13/mar"/>
-          <s v="14/mar"/>
-          <s v="15/mar"/>
-          <s v="16/mar"/>
-          <s v="17/mar"/>
-          <s v="18/mar"/>
-          <s v="19/mar"/>
-          <s v="20/mar"/>
-          <s v="21/mar"/>
-          <s v="22/mar"/>
-          <s v="23/mar"/>
-          <s v="24/mar"/>
-          <s v="25/mar"/>
-          <s v="26/mar"/>
-          <s v="27/mar"/>
-          <s v="28/mar"/>
-          <s v="29/mar"/>
-          <s v="30/mar"/>
-          <s v="31/mar"/>
-          <s v="01/abr"/>
-          <s v="02/abr"/>
-          <s v="03/abr"/>
-          <s v="04/abr"/>
-          <s v="05/abr"/>
-          <s v="06/abr"/>
-          <s v="07/abr"/>
-          <s v="08/abr"/>
-          <s v="09/abr"/>
-          <s v="10/abr"/>
-          <s v="11/abr"/>
-          <s v="12/abr"/>
-          <s v="13/abr"/>
-          <s v="14/abr"/>
-          <s v="15/abr"/>
-          <s v="16/abr"/>
-          <s v="17/abr"/>
-          <s v="18/abr"/>
-          <s v="19/abr"/>
-          <s v="20/abr"/>
-          <s v="21/abr"/>
-          <s v="22/abr"/>
-          <s v="23/abr"/>
-          <s v="24/abr"/>
-          <s v="25/abr"/>
-          <s v="26/abr"/>
-          <s v="27/abr"/>
-          <s v="28/abr"/>
-          <s v="29/abr"/>
-          <s v="30/abr"/>
-          <s v="01/mai"/>
-          <s v="02/mai"/>
-          <s v="03/mai"/>
-          <s v="04/mai"/>
-          <s v="05/mai"/>
-          <s v="06/mai"/>
-          <s v="07/mai"/>
-          <s v="08/mai"/>
-          <s v="09/mai"/>
-          <s v="10/mai"/>
-          <s v="11/mai"/>
-          <s v="12/mai"/>
-          <s v="13/mai"/>
-          <s v="14/mai"/>
-          <s v="15/mai"/>
-          <s v="16/mai"/>
-          <s v="17/mai"/>
-          <s v="18/mai"/>
-          <s v="19/mai"/>
-          <s v="20/mai"/>
-          <s v="21/mai"/>
-          <s v="22/mai"/>
-          <s v="23/mai"/>
-          <s v="24/mai"/>
-          <s v="25/mai"/>
-          <s v="26/mai"/>
-          <s v="27/mai"/>
-          <s v="28/mai"/>
-          <s v="29/mai"/>
-          <s v="30/mai"/>
-          <s v="31/mai"/>
-          <s v="01/jun"/>
-          <s v="02/jun"/>
-          <s v="03/jun"/>
-          <s v="04/jun"/>
-          <s v="05/jun"/>
-          <s v="06/jun"/>
-          <s v="07/jun"/>
-          <s v="08/jun"/>
-          <s v="09/jun"/>
-          <s v="10/jun"/>
-          <s v="11/jun"/>
-          <s v="12/jun"/>
-          <s v="13/jun"/>
-          <s v="14/jun"/>
-          <s v="15/jun"/>
-          <s v="16/jun"/>
-          <s v="17/jun"/>
-          <s v="18/jun"/>
-          <s v="19/jun"/>
-          <s v="20/jun"/>
-          <s v="21/jun"/>
-          <s v="22/jun"/>
-          <s v="23/jun"/>
-          <s v="24/jun"/>
-          <s v="25/jun"/>
-          <s v="26/jun"/>
-          <s v="27/jun"/>
-          <s v="28/jun"/>
-          <s v="29/jun"/>
-          <s v="30/jun"/>
-          <s v="01/jul"/>
-          <s v="02/jul"/>
-          <s v="03/jul"/>
-          <s v="04/jul"/>
-          <s v="05/jul"/>
-          <s v="06/jul"/>
-          <s v="07/jul"/>
-          <s v="08/jul"/>
-          <s v="09/jul"/>
-          <s v="10/jul"/>
-          <s v="11/jul"/>
-          <s v="12/jul"/>
-          <s v="13/jul"/>
-          <s v="14/jul"/>
-          <s v="15/jul"/>
-          <s v="16/jul"/>
-          <s v="17/jul"/>
-          <s v="18/jul"/>
-          <s v="19/jul"/>
-          <s v="20/jul"/>
-          <s v="21/jul"/>
-          <s v="22/jul"/>
-          <s v="23/jul"/>
-          <s v="24/jul"/>
-          <s v="25/jul"/>
-          <s v="26/jul"/>
-          <s v="27/jul"/>
-          <s v="28/jul"/>
-          <s v="29/jul"/>
-          <s v="30/jul"/>
-          <s v="31/jul"/>
-          <s v="01/ago"/>
-          <s v="02/ago"/>
-          <s v="03/ago"/>
-          <s v="04/ago"/>
-          <s v="05/ago"/>
-          <s v="06/ago"/>
-          <s v="07/ago"/>
-          <s v="08/ago"/>
-          <s v="09/ago"/>
-          <s v="10/ago"/>
-          <s v="11/ago"/>
-          <s v="12/ago"/>
-          <s v="13/ago"/>
-          <s v="14/ago"/>
-          <s v="15/ago"/>
-          <s v="16/ago"/>
-          <s v="17/ago"/>
-          <s v="18/ago"/>
-          <s v="19/ago"/>
-          <s v="20/ago"/>
-          <s v="21/ago"/>
-          <s v="22/ago"/>
-          <s v="23/ago"/>
-          <s v="24/ago"/>
-          <s v="25/ago"/>
-          <s v="26/ago"/>
-          <s v="27/ago"/>
-          <s v="28/ago"/>
-          <s v="29/ago"/>
-          <s v="30/ago"/>
-          <s v="31/ago"/>
-          <s v="01/set"/>
-          <s v="02/set"/>
-          <s v="03/set"/>
-          <s v="04/set"/>
-          <s v="05/set"/>
-          <s v="06/set"/>
-          <s v="07/set"/>
-          <s v="08/set"/>
-          <s v="09/set"/>
-          <s v="10/set"/>
-          <s v="11/set"/>
-          <s v="12/set"/>
-          <s v="13/set"/>
-          <s v="14/set"/>
-          <s v="15/set"/>
-          <s v="16/set"/>
-          <s v="17/set"/>
-          <s v="18/set"/>
-          <s v="19/set"/>
-          <s v="20/set"/>
-          <s v="21/set"/>
-          <s v="22/set"/>
-          <s v="23/set"/>
-          <s v="24/set"/>
-          <s v="25/set"/>
-          <s v="26/set"/>
-          <s v="27/set"/>
-          <s v="28/set"/>
-          <s v="29/set"/>
-          <s v="30/set"/>
-          <s v="01/out"/>
-          <s v="02/out"/>
-          <s v="03/out"/>
-          <s v="04/out"/>
-          <s v="05/out"/>
-          <s v="06/out"/>
-          <s v="07/out"/>
-          <s v="08/out"/>
-          <s v="09/out"/>
-          <s v="10/out"/>
-          <s v="11/out"/>
-          <s v="12/out"/>
-          <s v="13/out"/>
-          <s v="14/out"/>
-          <s v="15/out"/>
-          <s v="16/out"/>
-          <s v="17/out"/>
-          <s v="18/out"/>
-          <s v="19/out"/>
-          <s v="20/out"/>
-          <s v="21/out"/>
-          <s v="22/out"/>
-          <s v="23/out"/>
-          <s v="24/out"/>
-          <s v="25/out"/>
-          <s v="26/out"/>
-          <s v="27/out"/>
-          <s v="28/out"/>
-          <s v="29/out"/>
-          <s v="30/out"/>
-          <s v="31/out"/>
-          <s v="01/nov"/>
-          <s v="02/nov"/>
-          <s v="03/nov"/>
-          <s v="04/nov"/>
-          <s v="05/nov"/>
-          <s v="06/nov"/>
-          <s v="07/nov"/>
-          <s v="08/nov"/>
-          <s v="09/nov"/>
-          <s v="10/nov"/>
-          <s v="11/nov"/>
-          <s v="12/nov"/>
-          <s v="13/nov"/>
-          <s v="14/nov"/>
-          <s v="15/nov"/>
-          <s v="16/nov"/>
-          <s v="17/nov"/>
-          <s v="18/nov"/>
-          <s v="19/nov"/>
-          <s v="20/nov"/>
-          <s v="21/nov"/>
-          <s v="22/nov"/>
-          <s v="23/nov"/>
-          <s v="24/nov"/>
-          <s v="25/nov"/>
-          <s v="26/nov"/>
-          <s v="27/nov"/>
-          <s v="28/nov"/>
-          <s v="29/nov"/>
-          <s v="30/nov"/>
-          <s v="01/dez"/>
-          <s v="02/dez"/>
-          <s v="03/dez"/>
-          <s v="04/dez"/>
-          <s v="05/dez"/>
-          <s v="06/dez"/>
-          <s v="07/dez"/>
-          <s v="08/dez"/>
-          <s v="09/dez"/>
-          <s v="10/dez"/>
-          <s v="11/dez"/>
-          <s v="12/dez"/>
-          <s v="13/dez"/>
-          <s v="14/dez"/>
-          <s v="15/dez"/>
-          <s v="16/dez"/>
-          <s v="17/dez"/>
-          <s v="18/dez"/>
-          <s v="19/dez"/>
-          <s v="20/dez"/>
-          <s v="21/dez"/>
-          <s v="22/dez"/>
-          <s v="23/dez"/>
-          <s v="24/dez"/>
-          <s v="25/dez"/>
-          <s v="26/dez"/>
-          <s v="27/dez"/>
-          <s v="28/dez"/>
-          <s v="29/dez"/>
-          <s v="30/dez"/>
-          <s v="31/dez"/>
-          <s v="&gt;02/12/2023"/>
-        </groupItems>
-      </fieldGroup>
-    </cacheField>
-    <cacheField name="TOTAL DE CASOS" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="11" maxValue="3592"/>
-    </cacheField>
-    <cacheField name="Meses" numFmtId="0" databaseField="0">
-      <fieldGroup base="2">
-        <rangePr groupBy="months" startDate="2023-01-01T00:00:00" endDate="2023-12-02T00:00:00"/>
-        <groupItems count="14">
-          <s v="&lt;01/01/2023"/>
-          <s v="jan"/>
-          <s v="fev"/>
-          <s v="mar"/>
-          <s v="abr"/>
-          <s v="mai"/>
-          <s v="jun"/>
-          <s v="jul"/>
-          <s v="ago"/>
-          <s v="set"/>
-          <s v="out"/>
-          <s v="nov"/>
-          <s v="dez"/>
-          <s v="&gt;02/12/2023"/>
-        </groupItems>
-      </fieldGroup>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition pivotCacheId="182577508"/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="324">
-  <r>
-    <x v="0"/>
-    <s v="Roubo de veículo"/>
-    <x v="0"/>
-    <n v="48"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <s v="Roubo de veículo"/>
-    <x v="0"/>
-    <n v="143"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <s v="Roubo de veículo"/>
-    <x v="0"/>
-    <n v="128"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <s v="Roubo de veículo"/>
-    <x v="0"/>
-    <n v="29"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <s v="Roubo de veículo"/>
-    <x v="0"/>
-    <n v="1104"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <s v="Roubo de veículo"/>
-    <x v="0"/>
-    <n v="634"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <s v="Roubo de veículo"/>
-    <x v="0"/>
-    <n v="124"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <s v="Roubo de veículo"/>
-    <x v="0"/>
-    <n v="275"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <s v="Roubo de veículo"/>
-    <x v="0"/>
-    <n v="97"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <s v="Roubo de veículo"/>
-    <x v="0"/>
-    <n v="452"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <s v="Roubo de veículo"/>
-    <x v="0"/>
-    <n v="435"/>
-  </r>
-  <r>
-    <x v="11"/>
-    <s v="Roubo de veículo"/>
-    <x v="0"/>
-    <n v="23"/>
-  </r>
-  <r>
-    <x v="12"/>
-    <s v="Roubo de veículo"/>
-    <x v="0"/>
-    <n v="111"/>
-  </r>
-  <r>
-    <x v="13"/>
-    <s v="Roubo de veículo"/>
-    <x v="0"/>
-    <n v="139"/>
-  </r>
-  <r>
-    <x v="14"/>
-    <s v="Roubo de veículo"/>
-    <x v="0"/>
-    <n v="398"/>
-  </r>
-  <r>
-    <x v="15"/>
-    <s v="Roubo de veículo"/>
-    <x v="0"/>
-    <n v="980"/>
-  </r>
-  <r>
-    <x v="16"/>
-    <s v="Roubo de veículo"/>
-    <x v="0"/>
-    <n v="428"/>
-  </r>
-  <r>
-    <x v="17"/>
-    <s v="Roubo de veículo"/>
-    <x v="0"/>
-    <n v="305"/>
-  </r>
-  <r>
-    <x v="18"/>
-    <s v="Roubo de veículo"/>
-    <x v="0"/>
-    <n v="1813"/>
-  </r>
-  <r>
-    <x v="19"/>
-    <s v="Roubo de veículo"/>
-    <x v="0"/>
-    <n v="274"/>
-  </r>
-  <r>
-    <x v="20"/>
-    <s v="Roubo de veículo"/>
-    <x v="0"/>
-    <n v="98"/>
-  </r>
-  <r>
-    <x v="21"/>
-    <s v="Roubo de veículo"/>
-    <x v="0"/>
-    <n v="32"/>
-  </r>
-  <r>
-    <x v="22"/>
-    <s v="Roubo de veículo"/>
-    <x v="0"/>
-    <n v="359"/>
-  </r>
-  <r>
-    <x v="23"/>
-    <s v="Roubo de veículo"/>
-    <x v="0"/>
-    <n v="105"/>
-  </r>
-  <r>
-    <x v="24"/>
-    <s v="Roubo de veículo"/>
-    <x v="0"/>
-    <n v="104"/>
-  </r>
-  <r>
-    <x v="25"/>
-    <s v="Roubo de veículo"/>
-    <x v="0"/>
-    <n v="3172"/>
-  </r>
-  <r>
-    <x v="26"/>
-    <s v="Roubo de veículo"/>
-    <x v="0"/>
-    <n v="25"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <s v="Roubo de veículo"/>
-    <x v="1"/>
-    <n v="47"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <s v="Roubo de veículo"/>
-    <x v="1"/>
-    <n v="136"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <s v="Roubo de veículo"/>
-    <x v="1"/>
-    <n v="103"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <s v="Roubo de veículo"/>
-    <x v="1"/>
-    <n v="24"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <s v="Roubo de veículo"/>
-    <x v="1"/>
-    <n v="1023"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <s v="Roubo de veículo"/>
-    <x v="1"/>
-    <n v="656"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <s v="Roubo de veículo"/>
-    <x v="1"/>
-    <n v="95"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <s v="Roubo de veículo"/>
-    <x v="1"/>
-    <n v="201"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <s v="Roubo de veículo"/>
-    <x v="1"/>
-    <n v="83"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <s v="Roubo de veículo"/>
-    <x v="1"/>
-    <n v="375"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <s v="Roubo de veículo"/>
-    <x v="1"/>
-    <n v="325"/>
-  </r>
-  <r>
-    <x v="11"/>
-    <s v="Roubo de veículo"/>
-    <x v="1"/>
-    <n v="32"/>
-  </r>
-  <r>
-    <x v="12"/>
-    <s v="Roubo de veículo"/>
-    <x v="1"/>
-    <n v="105"/>
-  </r>
-  <r>
-    <x v="13"/>
-    <s v="Roubo de veículo"/>
-    <x v="1"/>
-    <n v="140"/>
-  </r>
-  <r>
-    <x v="14"/>
-    <s v="Roubo de veículo"/>
-    <x v="1"/>
-    <n v="326"/>
-  </r>
-  <r>
-    <x v="15"/>
-    <s v="Roubo de veículo"/>
-    <x v="1"/>
-    <n v="1051"/>
-  </r>
-  <r>
-    <x v="16"/>
-    <s v="Roubo de veículo"/>
-    <x v="1"/>
-    <n v="362"/>
-  </r>
-  <r>
-    <x v="17"/>
-    <s v="Roubo de veículo"/>
-    <x v="1"/>
-    <n v="292"/>
-  </r>
-  <r>
-    <x v="18"/>
-    <s v="Roubo de veículo"/>
-    <x v="1"/>
-    <n v="1578"/>
-  </r>
-  <r>
-    <x v="19"/>
-    <s v="Roubo de veículo"/>
-    <x v="1"/>
-    <n v="221"/>
-  </r>
-  <r>
-    <x v="20"/>
-    <s v="Roubo de veículo"/>
-    <x v="1"/>
-    <n v="84"/>
-  </r>
-  <r>
-    <x v="21"/>
-    <s v="Roubo de veículo"/>
-    <x v="1"/>
-    <n v="20"/>
-  </r>
-  <r>
-    <x v="22"/>
-    <s v="Roubo de veículo"/>
-    <x v="1"/>
-    <n v="323"/>
-  </r>
-  <r>
-    <x v="23"/>
-    <s v="Roubo de veículo"/>
-    <x v="1"/>
-    <n v="85"/>
-  </r>
-  <r>
-    <x v="24"/>
-    <s v="Roubo de veículo"/>
-    <x v="1"/>
-    <n v="76"/>
-  </r>
-  <r>
-    <x v="25"/>
-    <s v="Roubo de veículo"/>
-    <x v="1"/>
-    <n v="2945"/>
-  </r>
-  <r>
-    <x v="26"/>
-    <s v="Roubo de veículo"/>
-    <x v="1"/>
-    <n v="16"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <s v="Roubo de veículo"/>
-    <x v="2"/>
-    <n v="61"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <s v="Roubo de veículo"/>
-    <x v="2"/>
-    <n v="150"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <s v="Roubo de veículo"/>
-    <x v="2"/>
-    <n v="95"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <s v="Roubo de veículo"/>
-    <x v="2"/>
-    <n v="21"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <s v="Roubo de veículo"/>
-    <x v="2"/>
-    <n v="1194"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <s v="Roubo de veículo"/>
-    <x v="2"/>
-    <n v="707"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <s v="Roubo de veículo"/>
-    <x v="2"/>
-    <n v="142"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <s v="Roubo de veículo"/>
-    <x v="2"/>
-    <n v="250"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <s v="Roubo de veículo"/>
-    <x v="2"/>
-    <n v="86"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <s v="Roubo de veículo"/>
-    <x v="2"/>
-    <n v="433"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <s v="Roubo de veículo"/>
-    <x v="2"/>
-    <n v="408"/>
-  </r>
-  <r>
-    <x v="11"/>
-    <s v="Roubo de veículo"/>
-    <x v="2"/>
-    <n v="41"/>
-  </r>
-  <r>
-    <x v="12"/>
-    <s v="Roubo de veículo"/>
-    <x v="2"/>
-    <n v="95"/>
-  </r>
-  <r>
-    <x v="13"/>
-    <s v="Roubo de veículo"/>
-    <x v="2"/>
-    <n v="131"/>
-  </r>
-  <r>
-    <x v="14"/>
-    <s v="Roubo de veículo"/>
-    <x v="2"/>
-    <n v="330"/>
-  </r>
-  <r>
-    <x v="15"/>
-    <s v="Roubo de veículo"/>
-    <x v="2"/>
-    <n v="1358"/>
-  </r>
-  <r>
-    <x v="16"/>
-    <s v="Roubo de veículo"/>
-    <x v="2"/>
-    <n v="449"/>
-  </r>
-  <r>
-    <x v="17"/>
-    <s v="Roubo de veículo"/>
-    <x v="2"/>
-    <n v="343"/>
-  </r>
-  <r>
-    <x v="18"/>
-    <s v="Roubo de veículo"/>
-    <x v="2"/>
-    <n v="2309"/>
-  </r>
-  <r>
-    <x v="19"/>
-    <s v="Roubo de veículo"/>
-    <x v="2"/>
-    <n v="226"/>
-  </r>
-  <r>
-    <x v="20"/>
-    <s v="Roubo de veículo"/>
-    <x v="2"/>
-    <n v="85"/>
-  </r>
-  <r>
-    <x v="21"/>
-    <s v="Roubo de veículo"/>
-    <x v="2"/>
-    <n v="25"/>
-  </r>
-  <r>
-    <x v="22"/>
-    <s v="Roubo de veículo"/>
-    <x v="2"/>
-    <n v="409"/>
-  </r>
-  <r>
-    <x v="23"/>
-    <s v="Roubo de veículo"/>
-    <x v="2"/>
-    <n v="88"/>
-  </r>
-  <r>
-    <x v="24"/>
-    <s v="Roubo de veículo"/>
-    <x v="2"/>
-    <n v="74"/>
-  </r>
-  <r>
-    <x v="25"/>
-    <s v="Roubo de veículo"/>
-    <x v="2"/>
-    <n v="3592"/>
-  </r>
-  <r>
-    <x v="26"/>
-    <s v="Roubo de veículo"/>
-    <x v="2"/>
-    <n v="22"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <s v="Roubo de veículo"/>
-    <x v="3"/>
-    <n v="61"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <s v="Roubo de veículo"/>
-    <x v="3"/>
-    <n v="149"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <s v="Roubo de veículo"/>
-    <x v="3"/>
-    <n v="97"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <s v="Roubo de veículo"/>
-    <x v="3"/>
-    <n v="20"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <s v="Roubo de veículo"/>
-    <x v="3"/>
-    <n v="1098"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <s v="Roubo de veículo"/>
-    <x v="3"/>
-    <n v="570"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <s v="Roubo de veículo"/>
-    <x v="3"/>
-    <n v="113"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <s v="Roubo de veículo"/>
-    <x v="3"/>
-    <n v="252"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <s v="Roubo de veículo"/>
-    <x v="3"/>
-    <n v="71"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <s v="Roubo de veículo"/>
-    <x v="3"/>
-    <n v="425"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <s v="Roubo de veículo"/>
-    <x v="3"/>
-    <n v="379"/>
-  </r>
-  <r>
-    <x v="11"/>
-    <s v="Roubo de veículo"/>
-    <x v="3"/>
-    <n v="35"/>
-  </r>
-  <r>
-    <x v="12"/>
-    <s v="Roubo de veículo"/>
-    <x v="3"/>
-    <n v="89"/>
-  </r>
-  <r>
-    <x v="13"/>
-    <s v="Roubo de veículo"/>
-    <x v="3"/>
-    <n v="141"/>
-  </r>
-  <r>
-    <x v="14"/>
-    <s v="Roubo de veículo"/>
-    <x v="3"/>
-    <n v="323"/>
-  </r>
-  <r>
-    <x v="15"/>
-    <s v="Roubo de veículo"/>
-    <x v="3"/>
-    <n v="1346"/>
-  </r>
-  <r>
-    <x v="16"/>
-    <s v="Roubo de veículo"/>
-    <x v="3"/>
-    <n v="431"/>
-  </r>
-  <r>
-    <x v="17"/>
-    <s v="Roubo de veículo"/>
-    <x v="3"/>
-    <n v="286"/>
-  </r>
-  <r>
-    <x v="18"/>
-    <s v="Roubo de veículo"/>
-    <x v="3"/>
-    <n v="2237"/>
-  </r>
-  <r>
-    <x v="19"/>
-    <s v="Roubo de veículo"/>
-    <x v="3"/>
-    <n v="262"/>
-  </r>
-  <r>
-    <x v="20"/>
-    <s v="Roubo de veículo"/>
-    <x v="3"/>
-    <n v="68"/>
-  </r>
-  <r>
-    <x v="21"/>
-    <s v="Roubo de veículo"/>
-    <x v="3"/>
-    <n v="15"/>
-  </r>
-  <r>
-    <x v="22"/>
-    <s v="Roubo de veículo"/>
-    <x v="3"/>
-    <n v="327"/>
-  </r>
-  <r>
-    <x v="23"/>
-    <s v="Roubo de veículo"/>
-    <x v="3"/>
-    <n v="94"/>
-  </r>
-  <r>
-    <x v="24"/>
-    <s v="Roubo de veículo"/>
-    <x v="3"/>
-    <n v="68"/>
-  </r>
-  <r>
-    <x v="25"/>
-    <s v="Roubo de veículo"/>
-    <x v="3"/>
-    <n v="3079"/>
-  </r>
-  <r>
-    <x v="26"/>
-    <s v="Roubo de veículo"/>
-    <x v="3"/>
-    <n v="23"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <s v="Roubo de veículo"/>
-    <x v="4"/>
-    <n v="64"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <s v="Roubo de veículo"/>
-    <x v="4"/>
-    <n v="136"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <s v="Roubo de veículo"/>
-    <x v="4"/>
-    <n v="105"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <s v="Roubo de veículo"/>
-    <x v="4"/>
-    <n v="28"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <s v="Roubo de veículo"/>
-    <x v="4"/>
-    <n v="1189"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <s v="Roubo de veículo"/>
-    <x v="4"/>
-    <n v="639"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <s v="Roubo de veículo"/>
-    <x v="4"/>
-    <n v="118"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <s v="Roubo de veículo"/>
-    <x v="4"/>
-    <n v="209"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <s v="Roubo de veículo"/>
-    <x v="4"/>
-    <n v="64"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <s v="Roubo de veículo"/>
-    <x v="4"/>
-    <n v="467"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <s v="Roubo de veículo"/>
-    <x v="4"/>
-    <n v="324"/>
-  </r>
-  <r>
-    <x v="11"/>
-    <s v="Roubo de veículo"/>
-    <x v="4"/>
-    <n v="29"/>
-  </r>
-  <r>
-    <x v="12"/>
-    <s v="Roubo de veículo"/>
-    <x v="4"/>
-    <n v="104"/>
-  </r>
-  <r>
-    <x v="13"/>
-    <s v="Roubo de veículo"/>
-    <x v="4"/>
-    <n v="130"/>
-  </r>
-  <r>
-    <x v="14"/>
-    <s v="Roubo de veículo"/>
-    <x v="4"/>
-    <n v="355"/>
-  </r>
-  <r>
-    <x v="15"/>
-    <s v="Roubo de veículo"/>
-    <x v="4"/>
-    <n v="1190"/>
-  </r>
-  <r>
-    <x v="16"/>
-    <s v="Roubo de veículo"/>
-    <x v="4"/>
-    <n v="392"/>
-  </r>
-  <r>
-    <x v="17"/>
-    <s v="Roubo de veículo"/>
-    <x v="4"/>
-    <n v="282"/>
-  </r>
-  <r>
-    <x v="18"/>
-    <s v="Roubo de veículo"/>
-    <x v="4"/>
-    <n v="2380"/>
-  </r>
-  <r>
-    <x v="19"/>
-    <s v="Roubo de veículo"/>
-    <x v="4"/>
-    <n v="324"/>
-  </r>
-  <r>
-    <x v="20"/>
-    <s v="Roubo de veículo"/>
-    <x v="4"/>
-    <n v="96"/>
-  </r>
-  <r>
-    <x v="21"/>
-    <s v="Roubo de veículo"/>
-    <x v="4"/>
-    <n v="28"/>
-  </r>
-  <r>
-    <x v="22"/>
-    <s v="Roubo de veículo"/>
-    <x v="4"/>
-    <n v="314"/>
-  </r>
-  <r>
-    <x v="23"/>
-    <s v="Roubo de veículo"/>
-    <x v="4"/>
-    <n v="82"/>
-  </r>
-  <r>
-    <x v="24"/>
-    <s v="Roubo de veículo"/>
-    <x v="4"/>
-    <n v="63"/>
-  </r>
-  <r>
-    <x v="25"/>
-    <s v="Roubo de veículo"/>
-    <x v="4"/>
-    <n v="2957"/>
-  </r>
-  <r>
-    <x v="26"/>
-    <s v="Roubo de veículo"/>
-    <x v="4"/>
-    <n v="26"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <s v="Roubo de veículo"/>
-    <x v="5"/>
-    <n v="40"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <s v="Roubo de veículo"/>
-    <x v="5"/>
-    <n v="141"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <s v="Roubo de veículo"/>
-    <x v="5"/>
-    <n v="95"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <s v="Roubo de veículo"/>
-    <x v="5"/>
-    <n v="11"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <s v="Roubo de veículo"/>
-    <x v="5"/>
-    <n v="1044"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <s v="Roubo de veículo"/>
-    <x v="5"/>
-    <n v="583"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <s v="Roubo de veículo"/>
-    <x v="5"/>
-    <n v="77"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <s v="Roubo de veículo"/>
-    <x v="5"/>
-    <n v="169"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <s v="Roubo de veículo"/>
-    <x v="5"/>
-    <n v="63"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <s v="Roubo de veículo"/>
-    <x v="5"/>
-    <n v="434"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <s v="Roubo de veículo"/>
-    <x v="5"/>
-    <n v="344"/>
-  </r>
-  <r>
-    <x v="11"/>
-    <s v="Roubo de veículo"/>
-    <x v="5"/>
-    <n v="28"/>
-  </r>
-  <r>
-    <x v="12"/>
-    <s v="Roubo de veículo"/>
-    <x v="5"/>
-    <n v="96"/>
-  </r>
-  <r>
-    <x v="13"/>
-    <s v="Roubo de veículo"/>
-    <x v="5"/>
-    <n v="118"/>
-  </r>
-  <r>
-    <x v="14"/>
-    <s v="Roubo de veículo"/>
-    <x v="5"/>
-    <n v="317"/>
-  </r>
-  <r>
-    <x v="15"/>
-    <s v="Roubo de veículo"/>
-    <x v="5"/>
-    <n v="1066"/>
-  </r>
-  <r>
-    <x v="16"/>
-    <s v="Roubo de veículo"/>
-    <x v="5"/>
-    <n v="347"/>
-  </r>
-  <r>
-    <x v="17"/>
-    <s v="Roubo de veículo"/>
-    <x v="5"/>
-    <n v="234"/>
-  </r>
-  <r>
-    <x v="18"/>
-    <s v="Roubo de veículo"/>
-    <x v="5"/>
-    <n v="1810"/>
-  </r>
-  <r>
-    <x v="19"/>
-    <s v="Roubo de veículo"/>
-    <x v="5"/>
-    <n v="294"/>
-  </r>
-  <r>
-    <x v="20"/>
-    <s v="Roubo de veículo"/>
-    <x v="5"/>
-    <n v="72"/>
-  </r>
-  <r>
-    <x v="21"/>
-    <s v="Roubo de veículo"/>
-    <x v="5"/>
-    <n v="16"/>
-  </r>
-  <r>
-    <x v="22"/>
-    <s v="Roubo de veículo"/>
-    <x v="5"/>
-    <n v="299"/>
-  </r>
-  <r>
-    <x v="23"/>
-    <s v="Roubo de veículo"/>
-    <x v="5"/>
-    <n v="90"/>
-  </r>
-  <r>
-    <x v="24"/>
-    <s v="Roubo de veículo"/>
-    <x v="5"/>
-    <n v="52"/>
-  </r>
-  <r>
-    <x v="25"/>
-    <s v="Roubo de veículo"/>
-    <x v="5"/>
-    <n v="2820"/>
-  </r>
-  <r>
-    <x v="26"/>
-    <s v="Roubo de veículo"/>
-    <x v="5"/>
-    <n v="17"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <s v="Roubo de veículo"/>
-    <x v="6"/>
-    <n v="51"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <s v="Roubo de veículo"/>
-    <x v="6"/>
-    <n v="127"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <s v="Roubo de veículo"/>
-    <x v="6"/>
-    <n v="82"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <s v="Roubo de veículo"/>
-    <x v="6"/>
-    <n v="17"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <s v="Roubo de veículo"/>
-    <x v="6"/>
-    <n v="1004"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <s v="Roubo de veículo"/>
-    <x v="6"/>
-    <n v="637"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <s v="Roubo de veículo"/>
-    <x v="6"/>
-    <n v="105"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <s v="Roubo de veículo"/>
-    <x v="6"/>
-    <n v="220"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <s v="Roubo de veículo"/>
-    <x v="6"/>
-    <n v="69"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <s v="Roubo de veículo"/>
-    <x v="6"/>
-    <n v="392"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <s v="Roubo de veículo"/>
-    <x v="6"/>
-    <n v="325"/>
-  </r>
-  <r>
-    <x v="11"/>
-    <s v="Roubo de veículo"/>
-    <x v="6"/>
-    <n v="37"/>
-  </r>
-  <r>
-    <x v="12"/>
-    <s v="Roubo de veículo"/>
-    <x v="6"/>
-    <n v="76"/>
-  </r>
-  <r>
-    <x v="13"/>
-    <s v="Roubo de veículo"/>
-    <x v="6"/>
-    <n v="126"/>
-  </r>
-  <r>
-    <x v="14"/>
-    <s v="Roubo de veículo"/>
-    <x v="6"/>
-    <n v="289"/>
-  </r>
-  <r>
-    <x v="15"/>
-    <s v="Roubo de veículo"/>
-    <x v="6"/>
-    <n v="953"/>
-  </r>
-  <r>
-    <x v="16"/>
-    <s v="Roubo de veículo"/>
-    <x v="6"/>
-    <n v="418"/>
-  </r>
-  <r>
-    <x v="17"/>
-    <s v="Roubo de veículo"/>
-    <x v="6"/>
-    <n v="234"/>
-  </r>
-  <r>
-    <x v="18"/>
-    <s v="Roubo de veículo"/>
-    <x v="6"/>
-    <n v="1165"/>
-  </r>
-  <r>
-    <x v="19"/>
-    <s v="Roubo de veículo"/>
-    <x v="6"/>
-    <n v="287"/>
-  </r>
-  <r>
-    <x v="20"/>
-    <s v="Roubo de veículo"/>
-    <x v="6"/>
-    <n v="93"/>
-  </r>
-  <r>
-    <x v="21"/>
-    <s v="Roubo de veículo"/>
-    <x v="6"/>
-    <n v="27"/>
-  </r>
-  <r>
-    <x v="22"/>
-    <s v="Roubo de veículo"/>
-    <x v="6"/>
-    <n v="255"/>
-  </r>
-  <r>
-    <x v="23"/>
-    <s v="Roubo de veículo"/>
-    <x v="6"/>
-    <n v="105"/>
-  </r>
-  <r>
-    <x v="24"/>
-    <s v="Roubo de veículo"/>
-    <x v="6"/>
-    <n v="44"/>
-  </r>
-  <r>
-    <x v="25"/>
-    <s v="Roubo de veículo"/>
-    <x v="6"/>
-    <n v="2837"/>
-  </r>
-  <r>
-    <x v="26"/>
-    <s v="Roubo de veículo"/>
-    <x v="6"/>
-    <n v="14"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <s v="Roubo de veículo"/>
-    <x v="7"/>
-    <n v="45"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <s v="Roubo de veículo"/>
-    <x v="7"/>
-    <n v="194"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <s v="Roubo de veículo"/>
-    <x v="7"/>
-    <n v="95"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <s v="Roubo de veículo"/>
-    <x v="7"/>
-    <n v="22"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <s v="Roubo de veículo"/>
-    <x v="7"/>
-    <n v="1121"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <s v="Roubo de veículo"/>
-    <x v="7"/>
-    <n v="712"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <s v="Roubo de veículo"/>
-    <x v="7"/>
-    <n v="95"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <s v="Roubo de veículo"/>
-    <x v="7"/>
-    <n v="240"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <s v="Roubo de veículo"/>
-    <x v="7"/>
-    <n v="95"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <s v="Roubo de veículo"/>
-    <x v="7"/>
-    <n v="395"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <s v="Roubo de veículo"/>
-    <x v="7"/>
-    <n v="343"/>
-  </r>
-  <r>
-    <x v="11"/>
-    <s v="Roubo de veículo"/>
-    <x v="7"/>
-    <n v="27"/>
-  </r>
-  <r>
-    <x v="12"/>
-    <s v="Roubo de veículo"/>
-    <x v="7"/>
-    <n v="76"/>
-  </r>
-  <r>
-    <x v="13"/>
-    <s v="Roubo de veículo"/>
-    <x v="7"/>
-    <n v="119"/>
-  </r>
-  <r>
-    <x v="14"/>
-    <s v="Roubo de veículo"/>
-    <x v="7"/>
-    <n v="268"/>
-  </r>
-  <r>
-    <x v="15"/>
-    <s v="Roubo de veículo"/>
-    <x v="7"/>
-    <n v="1062"/>
-  </r>
-  <r>
-    <x v="16"/>
-    <s v="Roubo de veículo"/>
-    <x v="7"/>
-    <n v="343"/>
-  </r>
-  <r>
-    <x v="17"/>
-    <s v="Roubo de veículo"/>
-    <x v="7"/>
-    <n v="210"/>
-  </r>
-  <r>
-    <x v="18"/>
-    <s v="Roubo de veículo"/>
-    <x v="7"/>
-    <n v="1428"/>
-  </r>
-  <r>
-    <x v="19"/>
-    <s v="Roubo de veículo"/>
-    <x v="7"/>
-    <n v="324"/>
-  </r>
-  <r>
-    <x v="20"/>
-    <s v="Roubo de veículo"/>
-    <x v="7"/>
-    <n v="93"/>
-  </r>
-  <r>
-    <x v="21"/>
-    <s v="Roubo de veículo"/>
-    <x v="7"/>
-    <n v="34"/>
-  </r>
-  <r>
-    <x v="22"/>
-    <s v="Roubo de veículo"/>
-    <x v="7"/>
-    <n v="285"/>
-  </r>
-  <r>
-    <x v="23"/>
-    <s v="Roubo de veículo"/>
-    <x v="7"/>
-    <n v="100"/>
-  </r>
-  <r>
-    <x v="24"/>
-    <s v="Roubo de veículo"/>
-    <x v="7"/>
-    <n v="64"/>
-  </r>
-  <r>
-    <x v="25"/>
-    <s v="Roubo de veículo"/>
-    <x v="7"/>
-    <n v="2821"/>
-  </r>
-  <r>
-    <x v="26"/>
-    <s v="Roubo de veículo"/>
-    <x v="7"/>
-    <n v="12"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <s v="Roubo de veículo"/>
-    <x v="8"/>
-    <n v="46"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <s v="Roubo de veículo"/>
-    <x v="8"/>
-    <n v="127"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <s v="Roubo de veículo"/>
-    <x v="8"/>
-    <n v="96"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <s v="Roubo de veículo"/>
-    <x v="8"/>
-    <n v="13"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <s v="Roubo de veículo"/>
-    <x v="8"/>
-    <n v="1000"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <s v="Roubo de veículo"/>
-    <x v="8"/>
-    <n v="729"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <s v="Roubo de veículo"/>
-    <x v="8"/>
-    <n v="91"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <s v="Roubo de veículo"/>
-    <x v="8"/>
-    <n v="231"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <s v="Roubo de veículo"/>
-    <x v="8"/>
-    <n v="78"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <s v="Roubo de veículo"/>
-    <x v="8"/>
-    <n v="399"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <s v="Roubo de veículo"/>
-    <x v="8"/>
-    <n v="338"/>
-  </r>
-  <r>
-    <x v="11"/>
-    <s v="Roubo de veículo"/>
-    <x v="8"/>
-    <n v="33"/>
-  </r>
-  <r>
-    <x v="12"/>
-    <s v="Roubo de veículo"/>
-    <x v="8"/>
-    <n v="74"/>
-  </r>
-  <r>
-    <x v="13"/>
-    <s v="Roubo de veículo"/>
-    <x v="8"/>
-    <n v="131"/>
-  </r>
-  <r>
-    <x v="14"/>
-    <s v="Roubo de veículo"/>
-    <x v="8"/>
-    <n v="293"/>
-  </r>
-  <r>
-    <x v="15"/>
-    <s v="Roubo de veículo"/>
-    <x v="8"/>
-    <n v="1038"/>
-  </r>
-  <r>
-    <x v="16"/>
-    <s v="Roubo de veículo"/>
-    <x v="8"/>
-    <n v="336"/>
-  </r>
-  <r>
-    <x v="17"/>
-    <s v="Roubo de veículo"/>
-    <x v="8"/>
-    <n v="231"/>
-  </r>
-  <r>
-    <x v="18"/>
-    <s v="Roubo de veículo"/>
-    <x v="8"/>
-    <n v="1708"/>
-  </r>
-  <r>
-    <x v="19"/>
-    <s v="Roubo de veículo"/>
-    <x v="8"/>
-    <n v="310"/>
-  </r>
-  <r>
-    <x v="20"/>
-    <s v="Roubo de veículo"/>
-    <x v="8"/>
-    <n v="58"/>
-  </r>
-  <r>
-    <x v="21"/>
-    <s v="Roubo de veículo"/>
-    <x v="8"/>
-    <n v="21"/>
-  </r>
-  <r>
-    <x v="22"/>
-    <s v="Roubo de veículo"/>
-    <x v="8"/>
-    <n v="275"/>
-  </r>
-  <r>
-    <x v="23"/>
-    <s v="Roubo de veículo"/>
-    <x v="8"/>
-    <n v="92"/>
-  </r>
-  <r>
-    <x v="24"/>
-    <s v="Roubo de veículo"/>
-    <x v="8"/>
-    <n v="56"/>
-  </r>
-  <r>
-    <x v="25"/>
-    <s v="Roubo de veículo"/>
-    <x v="8"/>
-    <n v="3046"/>
-  </r>
-  <r>
-    <x v="26"/>
-    <s v="Roubo de veículo"/>
-    <x v="8"/>
-    <n v="11"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <s v="Roubo de veículo"/>
-    <x v="9"/>
-    <n v="70"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <s v="Roubo de veículo"/>
-    <x v="9"/>
-    <n v="175"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <s v="Roubo de veículo"/>
-    <x v="9"/>
-    <n v="97"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <s v="Roubo de veículo"/>
-    <x v="9"/>
-    <n v="29"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <s v="Roubo de veículo"/>
-    <x v="9"/>
-    <n v="930"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <s v="Roubo de veículo"/>
-    <x v="9"/>
-    <n v="683"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <s v="Roubo de veículo"/>
-    <x v="9"/>
-    <n v="118"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <s v="Roubo de veículo"/>
-    <x v="9"/>
-    <n v="187"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <s v="Roubo de veículo"/>
-    <x v="9"/>
-    <n v="94"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <s v="Roubo de veículo"/>
-    <x v="9"/>
-    <n v="400"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <s v="Roubo de veículo"/>
-    <x v="9"/>
-    <n v="399"/>
-  </r>
-  <r>
-    <x v="11"/>
-    <s v="Roubo de veículo"/>
-    <x v="9"/>
-    <n v="40"/>
-  </r>
-  <r>
-    <x v="12"/>
-    <s v="Roubo de veículo"/>
-    <x v="9"/>
-    <n v="85"/>
-  </r>
-  <r>
-    <x v="13"/>
-    <s v="Roubo de veículo"/>
-    <x v="9"/>
-    <n v="118"/>
-  </r>
-  <r>
-    <x v="14"/>
-    <s v="Roubo de veículo"/>
-    <x v="9"/>
-    <n v="260"/>
-  </r>
-  <r>
-    <x v="15"/>
-    <s v="Roubo de veículo"/>
-    <x v="9"/>
-    <n v="971"/>
-  </r>
-  <r>
-    <x v="16"/>
-    <s v="Roubo de veículo"/>
-    <x v="9"/>
-    <n v="393"/>
-  </r>
-  <r>
-    <x v="17"/>
-    <s v="Roubo de veículo"/>
-    <x v="9"/>
-    <n v="232"/>
-  </r>
-  <r>
-    <x v="18"/>
-    <s v="Roubo de veículo"/>
-    <x v="9"/>
-    <n v="1935"/>
-  </r>
-  <r>
-    <x v="19"/>
-    <s v="Roubo de veículo"/>
-    <x v="9"/>
-    <n v="280"/>
-  </r>
-  <r>
-    <x v="20"/>
-    <s v="Roubo de veículo"/>
-    <x v="9"/>
-    <n v="86"/>
-  </r>
-  <r>
-    <x v="21"/>
-    <s v="Roubo de veículo"/>
-    <x v="9"/>
-    <n v="14"/>
-  </r>
-  <r>
-    <x v="22"/>
-    <s v="Roubo de veículo"/>
-    <x v="9"/>
-    <n v="262"/>
-  </r>
-  <r>
-    <x v="23"/>
-    <s v="Roubo de veículo"/>
-    <x v="9"/>
-    <n v="79"/>
-  </r>
-  <r>
-    <x v="24"/>
-    <s v="Roubo de veículo"/>
-    <x v="9"/>
-    <n v="83"/>
-  </r>
-  <r>
-    <x v="25"/>
-    <s v="Roubo de veículo"/>
-    <x v="9"/>
-    <n v="3328"/>
-  </r>
-  <r>
-    <x v="26"/>
-    <s v="Roubo de veículo"/>
-    <x v="9"/>
-    <n v="13"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <s v="Roubo de veículo"/>
-    <x v="10"/>
-    <n v="75"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <s v="Roubo de veículo"/>
-    <x v="10"/>
-    <n v="166"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <s v="Roubo de veículo"/>
-    <x v="10"/>
-    <n v="98"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <s v="Roubo de veículo"/>
-    <x v="10"/>
-    <n v="23"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <s v="Roubo de veículo"/>
-    <x v="10"/>
-    <n v="940"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <s v="Roubo de veículo"/>
-    <x v="10"/>
-    <n v="625"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <s v="Roubo de veículo"/>
-    <x v="10"/>
-    <n v="119"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <s v="Roubo de veículo"/>
-    <x v="10"/>
-    <n v="210"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <s v="Roubo de veículo"/>
-    <x v="10"/>
-    <n v="74"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <s v="Roubo de veículo"/>
-    <x v="10"/>
-    <n v="456"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <s v="Roubo de veículo"/>
-    <x v="10"/>
-    <n v="359"/>
-  </r>
-  <r>
-    <x v="11"/>
-    <s v="Roubo de veículo"/>
-    <x v="10"/>
-    <n v="25"/>
-  </r>
-  <r>
-    <x v="12"/>
-    <s v="Roubo de veículo"/>
-    <x v="10"/>
-    <n v="110"/>
-  </r>
-  <r>
-    <x v="13"/>
-    <s v="Roubo de veículo"/>
-    <x v="10"/>
-    <n v="115"/>
-  </r>
-  <r>
-    <x v="14"/>
-    <s v="Roubo de veículo"/>
-    <x v="10"/>
-    <n v="258"/>
-  </r>
-  <r>
-    <x v="15"/>
-    <s v="Roubo de veículo"/>
-    <x v="10"/>
-    <n v="942"/>
-  </r>
-  <r>
-    <x v="16"/>
-    <s v="Roubo de veículo"/>
-    <x v="10"/>
-    <n v="350"/>
-  </r>
-  <r>
-    <x v="17"/>
-    <s v="Roubo de veículo"/>
-    <x v="10"/>
-    <n v="184"/>
-  </r>
-  <r>
-    <x v="18"/>
-    <s v="Roubo de veículo"/>
-    <x v="10"/>
-    <n v="2214"/>
-  </r>
-  <r>
-    <x v="19"/>
-    <s v="Roubo de veículo"/>
-    <x v="10"/>
-    <n v="265"/>
-  </r>
-  <r>
-    <x v="20"/>
-    <s v="Roubo de veículo"/>
-    <x v="10"/>
-    <n v="72"/>
-  </r>
-  <r>
-    <x v="21"/>
-    <s v="Roubo de veículo"/>
-    <x v="10"/>
-    <n v="35"/>
-  </r>
-  <r>
-    <x v="22"/>
-    <s v="Roubo de veículo"/>
-    <x v="10"/>
-    <n v="249"/>
-  </r>
-  <r>
-    <x v="23"/>
-    <s v="Roubo de veículo"/>
-    <x v="10"/>
-    <n v="71"/>
-  </r>
-  <r>
-    <x v="24"/>
-    <s v="Roubo de veículo"/>
-    <x v="10"/>
-    <n v="48"/>
-  </r>
-  <r>
-    <x v="25"/>
-    <s v="Roubo de veículo"/>
-    <x v="10"/>
-    <n v="3293"/>
-  </r>
-  <r>
-    <x v="26"/>
-    <s v="Roubo de veículo"/>
-    <x v="10"/>
-    <n v="15"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <s v="Roubo de veículo"/>
-    <x v="11"/>
-    <n v="30"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <s v="Roubo de veículo"/>
-    <x v="11"/>
-    <n v="39"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <s v="Roubo de veículo"/>
-    <x v="11"/>
-    <n v="114"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <s v="Roubo de veículo"/>
-    <x v="11"/>
-    <n v="33"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <s v="Roubo de veículo"/>
-    <x v="11"/>
-    <n v="881"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <s v="Roubo de veículo"/>
-    <x v="11"/>
-    <n v="619"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <s v="Roubo de veículo"/>
-    <x v="11"/>
-    <n v="86"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <s v="Roubo de veículo"/>
-    <x v="11"/>
-    <n v="226"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <s v="Roubo de veículo"/>
-    <x v="11"/>
-    <n v="68"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <s v="Roubo de veículo"/>
-    <x v="11"/>
-    <n v="368"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <s v="Roubo de veículo"/>
-    <x v="11"/>
-    <n v="389"/>
-  </r>
-  <r>
-    <x v="11"/>
-    <s v="Roubo de veículo"/>
-    <x v="11"/>
-    <n v="24"/>
-  </r>
-  <r>
-    <x v="12"/>
-    <s v="Roubo de veículo"/>
-    <x v="11"/>
-    <n v="56"/>
-  </r>
-  <r>
-    <x v="13"/>
-    <s v="Roubo de veículo"/>
-    <x v="11"/>
-    <n v="122"/>
-  </r>
-  <r>
-    <x v="14"/>
-    <s v="Roubo de veículo"/>
-    <x v="11"/>
-    <n v="230"/>
-  </r>
-  <r>
-    <x v="15"/>
-    <s v="Roubo de veículo"/>
-    <x v="11"/>
-    <n v="972"/>
-  </r>
-  <r>
-    <x v="16"/>
-    <s v="Roubo de veículo"/>
-    <x v="11"/>
-    <n v="295"/>
-  </r>
-  <r>
-    <x v="17"/>
-    <s v="Roubo de veículo"/>
-    <x v="11"/>
-    <n v="188"/>
-  </r>
-  <r>
-    <x v="18"/>
-    <s v="Roubo de veículo"/>
-    <x v="11"/>
-    <n v="1671"/>
-  </r>
-  <r>
-    <x v="19"/>
-    <s v="Roubo de veículo"/>
-    <x v="11"/>
-    <n v="246"/>
-  </r>
-  <r>
-    <x v="20"/>
-    <s v="Roubo de veículo"/>
-    <x v="11"/>
-    <n v="64"/>
-  </r>
-  <r>
-    <x v="21"/>
-    <s v="Roubo de veículo"/>
-    <x v="11"/>
-    <n v="18"/>
-  </r>
-  <r>
-    <x v="22"/>
-    <s v="Roubo de veículo"/>
-    <x v="11"/>
-    <n v="237"/>
-  </r>
-  <r>
-    <x v="23"/>
-    <s v="Roubo de veículo"/>
-    <x v="11"/>
-    <n v="80"/>
-  </r>
-  <r>
-    <x v="24"/>
-    <s v="Roubo de veículo"/>
-    <x v="11"/>
-    <n v="42"/>
-  </r>
-  <r>
-    <x v="25"/>
-    <s v="Roubo de veículo"/>
-    <x v="11"/>
-    <n v="3581"/>
-  </r>
-  <r>
-    <x v="26"/>
-    <s v="Roubo de veículo"/>
-    <x v="11"/>
-    <n v="15"/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D57CE989-AE82-4E76-B782-5012A97C9393}" name="Tabela dinâmica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="UF">
-  <location ref="F1:G29" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="5">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="28">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="14" showAll="0">
-      <items count="369">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item x="59"/>
-        <item x="60"/>
-        <item x="61"/>
-        <item x="62"/>
-        <item x="63"/>
-        <item x="64"/>
-        <item x="65"/>
-        <item x="66"/>
-        <item x="67"/>
-        <item x="68"/>
-        <item x="69"/>
-        <item x="70"/>
-        <item x="71"/>
-        <item x="72"/>
-        <item x="73"/>
-        <item x="74"/>
-        <item x="75"/>
-        <item x="76"/>
-        <item x="77"/>
-        <item x="78"/>
-        <item x="79"/>
-        <item x="80"/>
-        <item x="81"/>
-        <item x="82"/>
-        <item x="83"/>
-        <item x="84"/>
-        <item x="85"/>
-        <item x="86"/>
-        <item x="87"/>
-        <item x="88"/>
-        <item x="89"/>
-        <item x="90"/>
-        <item x="91"/>
-        <item x="92"/>
-        <item x="93"/>
-        <item x="94"/>
-        <item x="95"/>
-        <item x="96"/>
-        <item x="97"/>
-        <item x="98"/>
-        <item x="99"/>
-        <item x="100"/>
-        <item x="101"/>
-        <item x="102"/>
-        <item x="103"/>
-        <item x="104"/>
-        <item x="105"/>
-        <item x="106"/>
-        <item x="107"/>
-        <item x="108"/>
-        <item x="109"/>
-        <item x="110"/>
-        <item x="111"/>
-        <item x="112"/>
-        <item x="113"/>
-        <item x="114"/>
-        <item x="115"/>
-        <item x="116"/>
-        <item x="117"/>
-        <item x="118"/>
-        <item x="119"/>
-        <item x="120"/>
-        <item x="121"/>
-        <item x="122"/>
-        <item x="123"/>
-        <item x="124"/>
-        <item x="125"/>
-        <item x="126"/>
-        <item x="127"/>
-        <item x="128"/>
-        <item x="129"/>
-        <item x="130"/>
-        <item x="131"/>
-        <item x="132"/>
-        <item x="133"/>
-        <item x="134"/>
-        <item x="135"/>
-        <item x="136"/>
-        <item x="137"/>
-        <item x="138"/>
-        <item x="139"/>
-        <item x="140"/>
-        <item x="141"/>
-        <item x="142"/>
-        <item x="143"/>
-        <item x="144"/>
-        <item x="145"/>
-        <item x="146"/>
-        <item x="147"/>
-        <item x="148"/>
-        <item x="149"/>
-        <item x="150"/>
-        <item x="151"/>
-        <item x="152"/>
-        <item x="153"/>
-        <item x="154"/>
-        <item x="155"/>
-        <item x="156"/>
-        <item x="157"/>
-        <item x="158"/>
-        <item x="159"/>
-        <item x="160"/>
-        <item x="161"/>
-        <item x="162"/>
-        <item x="163"/>
-        <item x="164"/>
-        <item x="165"/>
-        <item x="166"/>
-        <item x="167"/>
-        <item x="168"/>
-        <item x="169"/>
-        <item x="170"/>
-        <item x="171"/>
-        <item x="172"/>
-        <item x="173"/>
-        <item x="174"/>
-        <item x="175"/>
-        <item x="176"/>
-        <item x="177"/>
-        <item x="178"/>
-        <item x="179"/>
-        <item x="180"/>
-        <item x="181"/>
-        <item x="182"/>
-        <item x="183"/>
-        <item x="184"/>
-        <item x="185"/>
-        <item x="186"/>
-        <item x="187"/>
-        <item x="188"/>
-        <item x="189"/>
-        <item x="190"/>
-        <item x="191"/>
-        <item x="192"/>
-        <item x="193"/>
-        <item x="194"/>
-        <item x="195"/>
-        <item x="196"/>
-        <item x="197"/>
-        <item x="198"/>
-        <item x="199"/>
-        <item x="200"/>
-        <item x="201"/>
-        <item x="202"/>
-        <item x="203"/>
-        <item x="204"/>
-        <item x="205"/>
-        <item x="206"/>
-        <item x="207"/>
-        <item x="208"/>
-        <item x="209"/>
-        <item x="210"/>
-        <item x="211"/>
-        <item x="212"/>
-        <item x="213"/>
-        <item x="214"/>
-        <item x="215"/>
-        <item x="216"/>
-        <item x="217"/>
-        <item x="218"/>
-        <item x="219"/>
-        <item x="220"/>
-        <item x="221"/>
-        <item x="222"/>
-        <item x="223"/>
-        <item x="224"/>
-        <item x="225"/>
-        <item x="226"/>
-        <item x="227"/>
-        <item x="228"/>
-        <item x="229"/>
-        <item x="230"/>
-        <item x="231"/>
-        <item x="232"/>
-        <item x="233"/>
-        <item x="234"/>
-        <item x="235"/>
-        <item x="236"/>
-        <item x="237"/>
-        <item x="238"/>
-        <item x="239"/>
-        <item x="240"/>
-        <item x="241"/>
-        <item x="242"/>
-        <item x="243"/>
-        <item x="244"/>
-        <item x="245"/>
-        <item x="246"/>
-        <item x="247"/>
-        <item x="248"/>
-        <item x="249"/>
-        <item x="250"/>
-        <item x="251"/>
-        <item x="252"/>
-        <item x="253"/>
-        <item x="254"/>
-        <item x="255"/>
-        <item x="256"/>
-        <item x="257"/>
-        <item x="258"/>
-        <item x="259"/>
-        <item x="260"/>
-        <item x="261"/>
-        <item x="262"/>
-        <item x="263"/>
-        <item x="264"/>
-        <item x="265"/>
-        <item x="266"/>
-        <item x="267"/>
-        <item x="268"/>
-        <item x="269"/>
-        <item x="270"/>
-        <item x="271"/>
-        <item x="272"/>
-        <item x="273"/>
-        <item x="274"/>
-        <item x="275"/>
-        <item x="276"/>
-        <item x="277"/>
-        <item x="278"/>
-        <item x="279"/>
-        <item x="280"/>
-        <item x="281"/>
-        <item x="282"/>
-        <item x="283"/>
-        <item x="284"/>
-        <item x="285"/>
-        <item x="286"/>
-        <item x="287"/>
-        <item x="288"/>
-        <item x="289"/>
-        <item x="290"/>
-        <item x="291"/>
-        <item x="292"/>
-        <item x="293"/>
-        <item x="294"/>
-        <item x="295"/>
-        <item x="296"/>
-        <item x="297"/>
-        <item x="298"/>
-        <item x="299"/>
-        <item x="300"/>
-        <item x="301"/>
-        <item x="302"/>
-        <item x="303"/>
-        <item x="304"/>
-        <item x="305"/>
-        <item x="306"/>
-        <item x="307"/>
-        <item x="308"/>
-        <item x="309"/>
-        <item x="310"/>
-        <item x="311"/>
-        <item x="312"/>
-        <item x="313"/>
-        <item x="314"/>
-        <item x="315"/>
-        <item x="316"/>
-        <item x="317"/>
-        <item x="318"/>
-        <item x="319"/>
-        <item x="320"/>
-        <item x="321"/>
-        <item x="322"/>
-        <item x="323"/>
-        <item x="324"/>
-        <item x="325"/>
-        <item x="326"/>
-        <item x="327"/>
-        <item x="328"/>
-        <item x="329"/>
-        <item x="330"/>
-        <item x="331"/>
-        <item x="332"/>
-        <item x="333"/>
-        <item x="334"/>
-        <item x="335"/>
-        <item x="336"/>
-        <item x="337"/>
-        <item x="338"/>
-        <item x="339"/>
-        <item x="340"/>
-        <item x="341"/>
-        <item x="342"/>
-        <item x="343"/>
-        <item x="344"/>
-        <item x="345"/>
-        <item x="346"/>
-        <item x="347"/>
-        <item x="348"/>
-        <item x="349"/>
-        <item x="350"/>
-        <item x="351"/>
-        <item x="352"/>
-        <item x="353"/>
-        <item x="354"/>
-        <item x="355"/>
-        <item x="356"/>
-        <item x="357"/>
-        <item x="358"/>
-        <item x="359"/>
-        <item x="360"/>
-        <item x="361"/>
-        <item x="362"/>
-        <item x="363"/>
-        <item x="364"/>
-        <item x="365"/>
-        <item x="366"/>
-        <item x="367"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0">
-      <items count="15">
-        <item sd="0" x="0"/>
-        <item sd="0" x="1"/>
-        <item sd="0" x="2"/>
-        <item sd="0" x="3"/>
-        <item sd="0" x="4"/>
-        <item sd="0" x="5"/>
-        <item sd="0" x="6"/>
-        <item sd="0" x="7"/>
-        <item sd="0" x="8"/>
-        <item sd="0" x="9"/>
-        <item sd="0" x="10"/>
-        <item sd="0" x="11"/>
-        <item sd="0" x="12"/>
-        <item sd="0" x="13"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="28">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="22"/>
-    </i>
-    <i>
-      <x v="23"/>
-    </i>
-    <i>
-      <x v="24"/>
-    </i>
-    <i>
-      <x v="25"/>
-    </i>
-    <i>
-      <x v="26"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Soma de TOTAL DE CASOS" fld="3" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{717D7419-9C92-4A9D-BE0B-85711F208C12}" name="Tabela dinâmica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2" rowHeaderCaption="MÊS">
-  <location ref="A1:B14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="5">
-    <pivotField showAll="0">
-      <items count="28">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="14" showAll="0">
-      <items count="369">
-        <item h="1" x="0"/>
-        <item h="1" x="1"/>
-        <item h="1" x="2"/>
-        <item h="1" x="3"/>
-        <item h="1" x="4"/>
-        <item h="1" x="5"/>
-        <item h="1" x="6"/>
-        <item h="1" x="7"/>
-        <item h="1" x="8"/>
-        <item h="1" x="9"/>
-        <item h="1" x="10"/>
-        <item h="1" x="11"/>
-        <item h="1" x="12"/>
-        <item h="1" x="13"/>
-        <item h="1" x="14"/>
-        <item h="1" x="15"/>
-        <item h="1" x="16"/>
-        <item h="1" x="17"/>
-        <item h="1" x="18"/>
-        <item h="1" x="19"/>
-        <item h="1" x="20"/>
-        <item h="1" x="21"/>
-        <item h="1" x="22"/>
-        <item h="1" x="23"/>
-        <item h="1" x="24"/>
-        <item h="1" x="25"/>
-        <item h="1" x="26"/>
-        <item h="1" x="27"/>
-        <item h="1" x="28"/>
-        <item h="1" x="29"/>
-        <item h="1" x="30"/>
-        <item h="1" x="31"/>
-        <item h="1" x="32"/>
-        <item h="1" x="33"/>
-        <item h="1" x="34"/>
-        <item h="1" x="35"/>
-        <item h="1" x="36"/>
-        <item h="1" x="37"/>
-        <item h="1" x="38"/>
-        <item h="1" x="39"/>
-        <item h="1" x="40"/>
-        <item h="1" x="41"/>
-        <item h="1" x="42"/>
-        <item h="1" x="43"/>
-        <item h="1" x="44"/>
-        <item h="1" x="45"/>
-        <item h="1" x="46"/>
-        <item h="1" x="47"/>
-        <item h="1" x="48"/>
-        <item h="1" x="49"/>
-        <item h="1" x="50"/>
-        <item h="1" x="51"/>
-        <item h="1" x="52"/>
-        <item h="1" x="53"/>
-        <item h="1" x="54"/>
-        <item h="1" x="55"/>
-        <item h="1" x="56"/>
-        <item h="1" x="57"/>
-        <item h="1" x="58"/>
-        <item h="1" x="59"/>
-        <item h="1" x="60"/>
-        <item h="1" x="61"/>
-        <item h="1" x="62"/>
-        <item h="1" x="63"/>
-        <item h="1" x="64"/>
-        <item h="1" x="65"/>
-        <item h="1" x="66"/>
-        <item h="1" x="67"/>
-        <item h="1" x="68"/>
-        <item h="1" x="69"/>
-        <item h="1" x="70"/>
-        <item h="1" x="71"/>
-        <item h="1" x="72"/>
-        <item h="1" x="73"/>
-        <item h="1" x="74"/>
-        <item h="1" x="75"/>
-        <item h="1" x="76"/>
-        <item h="1" x="77"/>
-        <item h="1" x="78"/>
-        <item h="1" x="79"/>
-        <item h="1" x="80"/>
-        <item h="1" x="81"/>
-        <item h="1" x="82"/>
-        <item h="1" x="83"/>
-        <item h="1" x="84"/>
-        <item h="1" x="85"/>
-        <item h="1" x="86"/>
-        <item h="1" x="87"/>
-        <item h="1" x="88"/>
-        <item h="1" x="89"/>
-        <item h="1" x="90"/>
-        <item h="1" x="91"/>
-        <item h="1" x="92"/>
-        <item h="1" x="93"/>
-        <item h="1" x="94"/>
-        <item h="1" x="95"/>
-        <item h="1" x="96"/>
-        <item h="1" x="97"/>
-        <item h="1" x="98"/>
-        <item h="1" x="99"/>
-        <item h="1" x="100"/>
-        <item h="1" x="101"/>
-        <item h="1" x="102"/>
-        <item h="1" x="103"/>
-        <item h="1" x="104"/>
-        <item h="1" x="105"/>
-        <item h="1" x="106"/>
-        <item h="1" x="107"/>
-        <item h="1" x="108"/>
-        <item h="1" x="109"/>
-        <item h="1" x="110"/>
-        <item h="1" x="111"/>
-        <item h="1" x="112"/>
-        <item h="1" x="113"/>
-        <item h="1" x="114"/>
-        <item h="1" x="115"/>
-        <item h="1" x="116"/>
-        <item h="1" x="117"/>
-        <item h="1" x="118"/>
-        <item h="1" x="119"/>
-        <item h="1" x="120"/>
-        <item h="1" x="121"/>
-        <item h="1" x="122"/>
-        <item h="1" x="123"/>
-        <item h="1" x="124"/>
-        <item h="1" x="125"/>
-        <item h="1" x="126"/>
-        <item h="1" x="127"/>
-        <item h="1" x="128"/>
-        <item h="1" x="129"/>
-        <item h="1" x="130"/>
-        <item h="1" x="131"/>
-        <item h="1" x="132"/>
-        <item h="1" x="133"/>
-        <item h="1" x="134"/>
-        <item h="1" x="135"/>
-        <item h="1" x="136"/>
-        <item h="1" x="137"/>
-        <item h="1" x="138"/>
-        <item h="1" x="139"/>
-        <item h="1" x="140"/>
-        <item h="1" x="141"/>
-        <item h="1" x="142"/>
-        <item h="1" x="143"/>
-        <item h="1" x="144"/>
-        <item h="1" x="145"/>
-        <item h="1" x="146"/>
-        <item h="1" x="147"/>
-        <item h="1" x="148"/>
-        <item h="1" x="149"/>
-        <item h="1" x="150"/>
-        <item h="1" x="151"/>
-        <item h="1" x="152"/>
-        <item h="1" x="153"/>
-        <item h="1" x="154"/>
-        <item h="1" x="155"/>
-        <item h="1" x="156"/>
-        <item h="1" x="157"/>
-        <item h="1" x="158"/>
-        <item h="1" x="159"/>
-        <item h="1" x="160"/>
-        <item h="1" x="161"/>
-        <item h="1" x="162"/>
-        <item h="1" x="163"/>
-        <item h="1" x="164"/>
-        <item h="1" x="165"/>
-        <item h="1" x="166"/>
-        <item h="1" x="167"/>
-        <item h="1" x="168"/>
-        <item h="1" x="169"/>
-        <item h="1" x="170"/>
-        <item h="1" x="171"/>
-        <item h="1" x="172"/>
-        <item h="1" x="173"/>
-        <item h="1" x="174"/>
-        <item h="1" x="175"/>
-        <item h="1" x="176"/>
-        <item h="1" x="177"/>
-        <item h="1" x="178"/>
-        <item h="1" x="179"/>
-        <item h="1" x="180"/>
-        <item h="1" x="181"/>
-        <item h="1" x="182"/>
-        <item h="1" x="183"/>
-        <item h="1" x="184"/>
-        <item h="1" x="185"/>
-        <item h="1" x="186"/>
-        <item h="1" x="187"/>
-        <item h="1" x="188"/>
-        <item h="1" x="189"/>
-        <item h="1" x="190"/>
-        <item h="1" x="191"/>
-        <item h="1" x="192"/>
-        <item h="1" x="193"/>
-        <item h="1" x="194"/>
-        <item h="1" x="195"/>
-        <item h="1" x="196"/>
-        <item h="1" x="197"/>
-        <item h="1" x="198"/>
-        <item h="1" x="199"/>
-        <item h="1" x="200"/>
-        <item h="1" x="201"/>
-        <item h="1" x="202"/>
-        <item h="1" x="203"/>
-        <item h="1" x="204"/>
-        <item h="1" x="205"/>
-        <item h="1" x="206"/>
-        <item h="1" x="207"/>
-        <item h="1" x="208"/>
-        <item h="1" x="209"/>
-        <item h="1" x="210"/>
-        <item h="1" x="211"/>
-        <item h="1" x="212"/>
-        <item h="1" x="213"/>
-        <item h="1" x="214"/>
-        <item h="1" x="215"/>
-        <item h="1" x="216"/>
-        <item h="1" x="217"/>
-        <item h="1" x="218"/>
-        <item h="1" x="219"/>
-        <item h="1" x="220"/>
-        <item h="1" x="221"/>
-        <item h="1" x="222"/>
-        <item h="1" x="223"/>
-        <item h="1" x="224"/>
-        <item h="1" x="225"/>
-        <item h="1" x="226"/>
-        <item h="1" x="227"/>
-        <item h="1" x="228"/>
-        <item h="1" x="229"/>
-        <item h="1" x="230"/>
-        <item h="1" x="231"/>
-        <item h="1" x="232"/>
-        <item h="1" x="233"/>
-        <item h="1" x="234"/>
-        <item h="1" x="235"/>
-        <item h="1" x="236"/>
-        <item h="1" x="237"/>
-        <item h="1" x="238"/>
-        <item h="1" x="239"/>
-        <item h="1" x="240"/>
-        <item h="1" x="241"/>
-        <item h="1" x="242"/>
-        <item h="1" x="243"/>
-        <item x="244"/>
-        <item h="1" x="245"/>
-        <item h="1" x="246"/>
-        <item h="1" x="247"/>
-        <item h="1" x="248"/>
-        <item h="1" x="249"/>
-        <item h="1" x="250"/>
-        <item h="1" x="251"/>
-        <item h="1" x="252"/>
-        <item h="1" x="253"/>
-        <item h="1" x="254"/>
-        <item h="1" x="255"/>
-        <item h="1" x="256"/>
-        <item h="1" x="257"/>
-        <item h="1" x="258"/>
-        <item h="1" x="259"/>
-        <item h="1" x="260"/>
-        <item h="1" x="261"/>
-        <item h="1" x="262"/>
-        <item h="1" x="263"/>
-        <item h="1" x="264"/>
-        <item h="1" x="265"/>
-        <item h="1" x="266"/>
-        <item h="1" x="267"/>
-        <item h="1" x="268"/>
-        <item h="1" x="269"/>
-        <item h="1" x="270"/>
-        <item h="1" x="271"/>
-        <item h="1" x="272"/>
-        <item h="1" x="273"/>
-        <item h="1" x="274"/>
-        <item h="1" x="275"/>
-        <item h="1" x="276"/>
-        <item h="1" x="277"/>
-        <item h="1" x="278"/>
-        <item h="1" x="279"/>
-        <item h="1" x="280"/>
-        <item h="1" x="281"/>
-        <item h="1" x="282"/>
-        <item h="1" x="283"/>
-        <item h="1" x="284"/>
-        <item h="1" x="285"/>
-        <item h="1" x="286"/>
-        <item h="1" x="287"/>
-        <item h="1" x="288"/>
-        <item h="1" x="289"/>
-        <item h="1" x="290"/>
-        <item h="1" x="291"/>
-        <item h="1" x="292"/>
-        <item h="1" x="293"/>
-        <item h="1" x="294"/>
-        <item h="1" x="295"/>
-        <item h="1" x="296"/>
-        <item h="1" x="297"/>
-        <item h="1" x="298"/>
-        <item h="1" x="299"/>
-        <item h="1" x="300"/>
-        <item h="1" x="301"/>
-        <item h="1" x="302"/>
-        <item h="1" x="303"/>
-        <item h="1" x="304"/>
-        <item h="1" x="305"/>
-        <item h="1" x="306"/>
-        <item h="1" x="307"/>
-        <item h="1" x="308"/>
-        <item h="1" x="309"/>
-        <item h="1" x="310"/>
-        <item h="1" x="311"/>
-        <item h="1" x="312"/>
-        <item h="1" x="313"/>
-        <item h="1" x="314"/>
-        <item h="1" x="315"/>
-        <item h="1" x="316"/>
-        <item h="1" x="317"/>
-        <item h="1" x="318"/>
-        <item h="1" x="319"/>
-        <item h="1" x="320"/>
-        <item h="1" x="321"/>
-        <item h="1" x="322"/>
-        <item h="1" x="323"/>
-        <item h="1" x="324"/>
-        <item h="1" x="325"/>
-        <item h="1" x="326"/>
-        <item h="1" x="327"/>
-        <item h="1" x="328"/>
-        <item h="1" x="329"/>
-        <item h="1" x="330"/>
-        <item h="1" x="331"/>
-        <item h="1" x="332"/>
-        <item h="1" x="333"/>
-        <item h="1" x="334"/>
-        <item h="1" x="335"/>
-        <item h="1" x="336"/>
-        <item h="1" x="337"/>
-        <item h="1" x="338"/>
-        <item h="1" x="339"/>
-        <item h="1" x="340"/>
-        <item h="1" x="341"/>
-        <item h="1" x="342"/>
-        <item h="1" x="343"/>
-        <item h="1" x="344"/>
-        <item h="1" x="345"/>
-        <item h="1" x="346"/>
-        <item h="1" x="347"/>
-        <item h="1" x="348"/>
-        <item h="1" x="349"/>
-        <item h="1" x="350"/>
-        <item h="1" x="351"/>
-        <item h="1" x="352"/>
-        <item h="1" x="353"/>
-        <item h="1" x="354"/>
-        <item h="1" x="355"/>
-        <item h="1" x="356"/>
-        <item h="1" x="357"/>
-        <item h="1" x="358"/>
-        <item h="1" x="359"/>
-        <item h="1" x="360"/>
-        <item h="1" x="361"/>
-        <item h="1" x="362"/>
-        <item h="1" x="363"/>
-        <item h="1" x="364"/>
-        <item h="1" x="365"/>
-        <item h="1" x="366"/>
-        <item h="1" x="367"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="15">
-        <item sd="0" x="0"/>
-        <item sd="0" x="1"/>
-        <item sd="0" x="2"/>
-        <item sd="0" x="3"/>
-        <item sd="0" x="4"/>
-        <item sd="0" x="5"/>
-        <item sd="0" x="6"/>
-        <item sd="0" x="7"/>
-        <item sd="0" x="8"/>
-        <item sd="0" x="9"/>
-        <item sd="0" x="10"/>
-        <item sd="0" x="11"/>
-        <item sd="0" x="12"/>
-        <item sd="0" x="13"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="4"/>
-  </rowFields>
-  <rowItems count="13">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Soma de TOTAL DE CASOS" fld="3" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaçãodeDados_Meses" xr10:uid="{895AACF1-2E1A-4811-855B-A9310ACFA975}" sourceName="Meses">
-  <pivotTables>
-    <pivotTable tabId="4" name="Tabela dinâmica2"/>
-  </pivotTables>
-  <data>
-    <tabular pivotCacheId="182577508">
-      <items count="14">
-        <i x="1" s="1"/>
-        <i x="2" s="1"/>
-        <i x="3" s="1"/>
-        <i x="4" s="1"/>
-        <i x="5" s="1"/>
-        <i x="6" s="1"/>
-        <i x="7" s="1"/>
-        <i x="8" s="1"/>
-        <i x="9" s="1"/>
-        <i x="10" s="1"/>
-        <i x="11" s="1"/>
-        <i x="12" s="1"/>
-        <i x="0" s="1" nd="1"/>
-        <i x="13" s="1" nd="1"/>
-      </items>
-    </tabular>
-  </data>
-</slicerCacheDefinition>
-</file>
-
-<file path=xl/slicerCaches/slicerCache2.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaçãodeDados_UF" xr10:uid="{B3B96137-B282-4F97-94E1-BFEF7B765FA5}" sourceName="UF">
-  <pivotTables>
-    <pivotTable tabId="4" name="Tabela dinâmica1"/>
-  </pivotTables>
-  <data>
-    <tabular pivotCacheId="182577508">
-      <items count="27">
-        <i x="0" s="1"/>
-        <i x="1" s="1"/>
-        <i x="2" s="1"/>
-        <i x="3" s="1"/>
-        <i x="4" s="1"/>
-        <i x="5" s="1"/>
-        <i x="6" s="1"/>
-        <i x="7" s="1"/>
-        <i x="8" s="1"/>
-        <i x="9" s="1"/>
-        <i x="10" s="1"/>
-        <i x="11" s="1"/>
-        <i x="12" s="1"/>
-        <i x="13" s="1"/>
-        <i x="14" s="1"/>
-        <i x="15" s="1"/>
-        <i x="16" s="1"/>
-        <i x="17" s="1"/>
-        <i x="18" s="1"/>
-        <i x="19" s="1"/>
-        <i x="20" s="1"/>
-        <i x="21" s="1"/>
-        <i x="22" s="1"/>
-        <i x="23" s="1"/>
-        <i x="24" s="1"/>
-        <i x="25" s="1"/>
-        <i x="26" s="1"/>
-      </items>
-    </tabular>
-  </data>
-</slicerCacheDefinition>
-</file>
-
-<file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
-<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
-  <slicer name="Meses" xr10:uid="{28FE5281-3DAE-4082-9B6E-C2D0BB3E8475}" cache="SegmentaçãodeDados_Meses" caption="Meses" rowHeight="241300"/>
-  <slicer name="UF" xr10:uid="{7D4F3A17-E986-4DA7-BD15-83DB2FA580C5}" cache="SegmentaçãodeDados_UF" caption="UF" startItem="15" rowHeight="241300"/>
-</slicers>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6330,7 +2632,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1957A5B7-A285-464B-97FF-06BE16C72B07}">
   <dimension ref="A1:D325"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -10900,10 +7202,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C87B600-0FA1-4515-A8F0-9A0793372D7E}">
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10913,336 +7215,108 @@
     <col min="12" max="12" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" s="11" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="B2" s="9">
+        <v>11835</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="12">
-        <v>11835</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="B3" s="9">
+        <v>10724</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="12">
-        <v>10724</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="B4" s="9">
+        <v>13124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="12">
-        <v>13124</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="B5" s="9">
+        <v>12059</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="12">
-        <v>12059</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="B6" s="9">
+        <v>12095</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="12">
-        <v>12095</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="B7" s="9">
+        <v>10677</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="12">
-        <v>10677</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="B8" s="9">
+        <v>9989</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="12">
-        <v>9989</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="B9" s="9">
+        <v>10623</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="12">
-        <v>10623</v>
-      </c>
-      <c r="L9">
-        <f>_xlfn.PERCENTILE.INC(B2:B13,95%)</f>
-        <v>12558.05</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="B10" s="9">
+        <v>10861</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="12">
-        <v>10861</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="B11" s="9">
+        <v>11361</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="12">
-        <v>11361</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="B12" s="9">
+        <v>11391</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="12">
-        <v>11391</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B13" s="12">
+      <c r="B13" s="9">
         <v>10694</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="9">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="9">
-        <v>1683</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="9">
-        <v>1205</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="9">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" s="9">
-        <v>12528</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="9">
-        <v>7794</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="9">
-        <v>1283</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" s="9">
-        <v>2670</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B23" s="9">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B24" s="9">
-        <v>4996</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25" s="9">
-        <v>4368</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B26" s="9">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B27" s="9">
-        <v>1077</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B28" s="9">
-        <v>1530</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B29" s="9">
-        <v>3647</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B30" s="9">
-        <v>12929</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B31" s="9">
-        <v>4544</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B32" s="9">
-        <v>3021</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B33" s="9">
-        <v>22248</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B34" s="9">
-        <v>3313</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B35" s="9">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B36" s="9">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B37" s="9">
-        <v>3594</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B38" s="9">
-        <v>1071</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B39" s="9">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B40" s="9">
-        <v>37471</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B41" s="9">
-        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -11252,347 +7326,252 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BC65EC9-E59F-4852-9F28-FEA4335CFE5E}">
-  <dimension ref="A1:G29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24801BE6-97A3-4C12-9618-A5EABD23D5DC}">
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:G28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="6">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="6">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="6">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="6">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="6">
+        <v>12528</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="6">
+        <v>7794</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="6">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="6">
+        <v>2670</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="6">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="6">
+        <v>4996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="6">
+        <v>4368</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="6">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="6">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="6">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="6">
+        <v>3647</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="6">
+        <v>12929</v>
+      </c>
+      <c r="E17" t="s">
         <v>46</v>
       </c>
-      <c r="B1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="7">
-        <v>11835</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="7">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="7">
-        <v>10724</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="7">
-        <v>1683</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" s="7">
-        <v>13124</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="7">
-        <v>1205</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="7">
-        <v>12059</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="7">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="7">
-        <v>12095</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G6" s="7">
-        <v>12528</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="7">
-        <v>10677</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="7">
-        <v>7794</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="7">
-        <v>9989</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" s="7">
-        <v>1283</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" s="7">
-        <v>10623</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="7">
-        <v>2670</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" s="7">
-        <v>10861</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" s="7">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" s="7">
-        <v>11361</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="7">
-        <v>4996</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" s="7">
-        <v>11391</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="G12" s="7">
-        <v>4368</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B13" s="7">
-        <v>10694</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G13" s="7">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="7">
-        <v>135433</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G14" s="7">
-        <v>1077</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F15" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" s="7">
-        <v>1530</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F16" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="7">
-        <v>3647</v>
-      </c>
-    </row>
-    <row r="17" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F17" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" s="7">
-        <v>12929</v>
-      </c>
-    </row>
-    <row r="18" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F18" s="6" t="s">
+      <c r="G17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G18" s="7">
+      <c r="B18" s="6">
         <v>4544</v>
       </c>
     </row>
-    <row r="19" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F19" s="6" t="s">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G19" s="7">
+      <c r="B19" s="6">
         <v>3021</v>
       </c>
     </row>
-    <row r="20" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F20" s="6" t="s">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G20" s="7">
+      <c r="B20" s="6">
         <v>22248</v>
       </c>
     </row>
-    <row r="21" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F21" s="6" t="s">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G21" s="7">
+      <c r="B21" s="6">
         <v>3313</v>
       </c>
     </row>
-    <row r="22" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F22" s="6" t="s">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G22" s="7">
+      <c r="B22" s="6">
         <v>969</v>
       </c>
     </row>
-    <row r="23" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F23" s="6" t="s">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G23" s="7">
+      <c r="B23" s="6">
         <v>285</v>
       </c>
     </row>
-    <row r="24" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F24" s="6" t="s">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G24" s="7">
+      <c r="B24" s="6">
         <v>3594</v>
       </c>
     </row>
-    <row r="25" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F25" s="6" t="s">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G25" s="7">
+      <c r="B25" s="6">
         <v>1071</v>
       </c>
     </row>
-    <row r="26" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F26" s="6" t="s">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G26" s="7">
+      <c r="B26" s="6">
         <v>774</v>
       </c>
     </row>
-    <row r="27" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F27" s="6" t="s">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G27" s="7">
+      <c r="B27" s="6">
         <v>37471</v>
       </c>
     </row>
-    <row r="28" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F28" s="6" t="s">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G28" s="7">
+      <c r="B28" s="6">
         <v>209</v>
-      </c>
-    </row>
-    <row r="29" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F29" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G29" s="7">
-        <v>135433</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <drawing r:id="rId3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
-      <x14:slicerList>
-        <x14:slicer r:id="rId4"/>
-      </x14:slicerList>
-    </ext>
-  </extLst>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/documentos/Entrega 1/Análise Descritiva de Dados/BancoVDE 2023.xlsx
+++ b/documentos/Entrega 1/Análise Descritiva de Dados/BancoVDE 2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9de1b0bd5bed9c06/Área de Trabalho/Repositórios/PI/Projeto1/documentos/Entrega 1/Análise Descritiva de Dados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="222" documentId="13_ncr:1_{5A4C8F3B-981C-4EC9-9EB5-051002120A74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{612E9E46-A30D-4381-961D-5CAF2CD1F3AF}"/>
+  <xr:revisionPtr revIDLastSave="223" documentId="13_ncr:1_{5A4C8F3B-981C-4EC9-9EB5-051002120A74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{001F48B0-E64A-46D3-87FD-8A7E1D5DF387}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,16 +22,13 @@
     <definedName name="_xlchart.v1.1" hidden="1">'DashBord 1 (Roubos por Estado)'!$B$1</definedName>
     <definedName name="_xlchart.v1.10" hidden="1">'DashBord 2 (Roubos por mês)'!$B$1</definedName>
     <definedName name="_xlchart.v1.11" hidden="1">'DashBord 2 (Roubos por mês)'!$B$2:$B$13</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">'DashBord 1 (Roubos por Estado)'!$A$2:$A$28</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">'DashBord 1 (Roubos por Estado)'!$B$1</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">'DashBord 1 (Roubos por Estado)'!$B$2:$B$28</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">'DashBord 1 (Roubos por Estado)'!$B$2:$B$28</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'DashBord 1 (Roubos por Estado)'!$A$2:$A$28</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'DashBord 1 (Roubos por Estado)'!$B$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'DashBord 1 (Roubos por Estado)'!$B$2:$B$28</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'DashBord 1 (Roubos por Estado)'!$A$2:$A$28</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'DashBord 1 (Roubos por Estado)'!$B$1</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'DashBord 1 (Roubos por Estado)'!$B$2:$B$28</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'DashBord 2 (Roubos por mês)'!$A$2:$A$13</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'DashBord 2 (Roubos por mês)'!$B$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'DashBord 2 (Roubos por mês)'!$B$2:$B$13</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'DashBord 2 (Roubos por mês)'!$A$2:$A$13</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'DashBord 2 (Roubos por mês)'!$B$1</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">'DashBord 2 (Roubos por mês)'!$B$2:$B$13</definedName>
     <definedName name="_xlchart.v1.9" hidden="1">'DashBord 2 (Roubos por mês)'!$A$2:$A$13</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -891,7 +888,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="13" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -920,8 +917,18 @@
     <xf numFmtId="0" fontId="13" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -946,18 +953,6 @@
     <xf numFmtId="0" fontId="13" fillId="33" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Ênfase1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1023,10 +1018,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.5</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1064,7 +1059,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{50FC7C98-132A-47F7-832B-FB4688A5D6BB}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.4</cx:f>
+              <cx:f>_xlchart.v1.1</cx:f>
               <cx:v>Soma de TOTAL DE CASOS</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1185,10 +1180,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.9</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.11</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1226,7 +1221,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{E6D1ED59-CCC9-4703-95E6-01A82BBCB05C}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.10</cx:f>
+              <cx:f>_xlchart.v1.4</cx:f>
               <cx:v>Soma de TOTAL DE CASOS</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1352,41 +1347,28 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
+  <a:schemeClr val="dk1"/>
   <cs:variation>
-    <a:lumMod val="60000"/>
+    <a:tint val="88500"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
+    <a:tint val="55000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="80000"/>
+    <a:tint val="75000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
+    <a:tint val="98500"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="50000"/>
+    <a:tint val="30000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
+    <a:tint val="60000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
+    <a:tint val="80000"/>
   </cs:variation>
 </cs:colorStyle>
 </file>
@@ -2456,8 +2438,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4357687" y="1224915"/>
-              <a:ext cx="4359593" cy="2636520"/>
+              <a:off x="2376487" y="1407795"/>
+              <a:ext cx="4336733" cy="2636520"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2540,7 +2522,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="2344102" y="1497330"/>
-              <a:ext cx="2441258" cy="2503170"/>
+              <a:ext cx="4331018" cy="2503170"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -7466,7 +7448,7 @@
       <c r="B1" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="22"/>
+      <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
@@ -7475,13 +7457,12 @@
       <c r="B2" s="9">
         <v>638</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="25"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="16"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
@@ -7490,17 +7471,16 @@
       <c r="B3" s="3">
         <v>1683</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="14" t="s">
+      <c r="D3" s="17"/>
+      <c r="E3" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="14" t="s">
+      <c r="F3" s="23"/>
+      <c r="G3" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="H3" s="15"/>
-      <c r="I3" s="27"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="18"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
@@ -7509,19 +7489,18 @@
       <c r="B4" s="3">
         <v>1205</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="16">
+      <c r="D4" s="17"/>
+      <c r="E4" s="24">
         <f>AVERAGE(B2:B28)</f>
         <v>5016.0370370370374</v>
       </c>
-      <c r="F4" s="17"/>
-      <c r="G4" s="16">
+      <c r="F4" s="25"/>
+      <c r="G4" s="24">
         <f>_xlfn.PERCENTILE.EXC(B2:B28, 95%)</f>
         <v>31381.799999999967</v>
       </c>
-      <c r="H4" s="17"/>
-      <c r="I4" s="27"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="18"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
@@ -7530,13 +7509,12 @@
       <c r="B5" s="3">
         <v>270</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="27"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="18"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
@@ -7545,13 +7523,12 @@
       <c r="B6" s="3">
         <v>12528</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="27"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="18"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
@@ -7560,17 +7537,16 @@
       <c r="B7" s="3">
         <v>7794</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="20" t="s">
+      <c r="D7" s="17"/>
+      <c r="E7" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="F7" s="21"/>
-      <c r="G7" s="20" t="s">
+      <c r="F7" s="29"/>
+      <c r="G7" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="H7" s="21"/>
-      <c r="I7" s="27"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="18"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
@@ -7579,13 +7555,12 @@
       <c r="B8" s="3">
         <v>1283</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="27"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="18"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
@@ -7594,13 +7569,12 @@
       <c r="B9" s="3">
         <v>2670</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="27"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="18"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
@@ -7609,13 +7583,12 @@
       <c r="B10" s="3">
         <v>942</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="27"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="18"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
@@ -7624,13 +7597,12 @@
       <c r="B11" s="3">
         <v>4996</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="27"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="18"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
@@ -7639,13 +7611,12 @@
       <c r="B12" s="3">
         <v>4368</v>
       </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="27"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="18"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
@@ -7654,13 +7625,12 @@
       <c r="B13" s="3">
         <v>374</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="27"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="18"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
@@ -7669,13 +7639,12 @@
       <c r="B14" s="3">
         <v>1077</v>
       </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="27"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="18"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
@@ -7684,13 +7653,12 @@
       <c r="B15" s="3">
         <v>1530</v>
       </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="27"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="18"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
@@ -7699,13 +7667,12 @@
       <c r="B16" s="3">
         <v>3647</v>
       </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="27"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="18"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
@@ -7714,13 +7681,12 @@
       <c r="B17" s="3">
         <v>12929</v>
       </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="27"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="18"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
@@ -7729,13 +7695,12 @@
       <c r="B18" s="3">
         <v>4544</v>
       </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="27"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="18"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
@@ -7744,13 +7709,12 @@
       <c r="B19" s="3">
         <v>3021</v>
       </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="27"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="18"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
@@ -7759,13 +7723,12 @@
       <c r="B20" s="3">
         <v>22248</v>
       </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="27"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="18"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
@@ -7774,13 +7737,12 @@
       <c r="B21" s="3">
         <v>3313</v>
       </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="27"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="18"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
@@ -7789,13 +7751,12 @@
       <c r="B22" s="3">
         <v>969</v>
       </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="27"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="18"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
@@ -7804,13 +7765,12 @@
       <c r="B23" s="3">
         <v>285</v>
       </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="30"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="21"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
@@ -7819,7 +7779,6 @@
       <c r="B24" s="3">
         <v>3594</v>
       </c>
-      <c r="C24" s="12"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
@@ -7828,7 +7787,6 @@
       <c r="B25" s="3">
         <v>1071</v>
       </c>
-      <c r="C25" s="12"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
@@ -7837,7 +7795,6 @@
       <c r="B26" s="3">
         <v>774</v>
       </c>
-      <c r="C26" s="12"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
@@ -7846,7 +7803,6 @@
       <c r="B27" s="3">
         <v>37471</v>
       </c>
-      <c r="C27" s="12"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
@@ -7855,7 +7811,6 @@
       <c r="B28" s="3">
         <v>209</v>
       </c>
-      <c r="C28" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -7901,263 +7856,263 @@
       <c r="A2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="31">
+      <c r="B2" s="3">
         <v>11835</v>
       </c>
-      <c r="D2" s="23"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="25"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="16"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="31">
+      <c r="B3" s="3">
         <v>10724</v>
       </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="14" t="s">
+      <c r="D3" s="17"/>
+      <c r="E3" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="14" t="s">
+      <c r="F3" s="23"/>
+      <c r="G3" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="H3" s="15"/>
-      <c r="I3" s="27"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="18"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="31">
+      <c r="B4" s="3">
         <v>13124</v>
       </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="16">
+      <c r="D4" s="17"/>
+      <c r="E4" s="24">
         <f>AVERAGE(B2:B13)</f>
         <v>11286.083333333334</v>
       </c>
-      <c r="F4" s="17"/>
-      <c r="G4" s="16">
+      <c r="F4" s="25"/>
+      <c r="G4" s="24">
         <f>_xlfn.PERCENTILE.INC(B2:B13,95%)</f>
         <v>12558.05</v>
       </c>
-      <c r="H4" s="17"/>
-      <c r="I4" s="27"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="18"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="31">
+      <c r="B5" s="3">
         <v>12059</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="27"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="18"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="31">
+      <c r="B6" s="3">
         <v>12095</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="27"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="18"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="31">
+      <c r="B7" s="3">
         <v>10677</v>
       </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="20" t="s">
+      <c r="D7" s="17"/>
+      <c r="E7" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="F7" s="21"/>
-      <c r="G7" s="20" t="s">
+      <c r="F7" s="29"/>
+      <c r="G7" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="H7" s="21"/>
-      <c r="I7" s="27"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="18"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="31">
+      <c r="B8" s="3">
         <v>9989</v>
       </c>
-      <c r="D8" s="26"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="27"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="18"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="31">
+      <c r="B9" s="3">
         <v>10623</v>
       </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="27"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="18"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="31">
+      <c r="B10" s="3">
         <v>10861</v>
       </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="27"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="18"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="31">
+      <c r="B11" s="3">
         <v>11361</v>
       </c>
-      <c r="D11" s="26"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="27"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="18"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="31">
+      <c r="B12" s="3">
         <v>11391</v>
       </c>
-      <c r="D12" s="26"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="27"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="18"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="31">
+      <c r="B13" s="3">
         <v>10694</v>
       </c>
-      <c r="D13" s="26"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="27"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="18"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D14" s="26"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="27"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="18"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D15" s="26"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="27"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="18"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D16" s="26"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="27"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="18"/>
     </row>
     <row r="17" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D17" s="26"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="27"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="18"/>
     </row>
     <row r="18" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D18" s="26"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="27"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="18"/>
     </row>
     <row r="19" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D19" s="26"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="27"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="18"/>
     </row>
     <row r="20" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D20" s="26"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="27"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="18"/>
     </row>
     <row r="21" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D21" s="26"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="27"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="18"/>
     </row>
     <row r="22" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D22" s="26"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="27"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="18"/>
     </row>
     <row r="23" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D23" s="28"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="30"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/documentos/Entrega 1/Análise Descritiva de Dados/BancoVDE 2023.xlsx
+++ b/documentos/Entrega 1/Análise Descritiva de Dados/BancoVDE 2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\24025889\Desktop\Repositorios\Projeto1\documentos\Entrega 1\Análise Descritiva de Dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3B2FBC0-84EB-4F29-8A32-70949055E238}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF871BF0-5208-4AB8-A3AE-59186EC0E266}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Base de Dados" sheetId="2" r:id="rId1"/>
@@ -20,17 +20,26 @@
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">'por Mês'!$A$2:$A$13</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">'por Mês'!$B$1</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">'por Estado'!$B$1</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">'por Estado'!$B$2:$B$28</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">'por Estado'!$A$2:$A$28</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">'por Estado'!$B$1</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">'por Estado'!$B$2:$B$28</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">'por Mês'!$B$2:$B$13</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'por Estado'!$A$2:$A$28</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'por Estado'!$B$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'por Estado'!$B$2:$B$28</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'por Mês'!$A$2:$A$13</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'por Mês'!$B$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'por Mês'!$B$2:$B$13</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'por Mês'!$A$2:$A$13</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'por Mês'!$B$1</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">'por Mês'!$B$2:$B$13</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">'por Estado'!$A$2:$A$28</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="50">
   <si>
     <t>MG</t>
   </si>
@@ -170,17 +179,23 @@
     <t>Mês</t>
   </si>
   <si>
-    <t>Média</t>
+    <t>Média:</t>
   </si>
   <si>
-    <t>95º Percentil</t>
+    <t>Roubos/Estado</t>
+  </si>
+  <si>
+    <t>95º Percentil:</t>
+  </si>
+  <si>
+    <t>Roubos/mês</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -310,6 +325,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="36"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -509,7 +532,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -639,6 +662,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -684,7 +744,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="13" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -705,6 +765,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="18" fillId="33" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Ênfase1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -770,10 +840,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.0</cx:f>
+        <cx:f>_xlchart.v1.6</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.2</cx:f>
+        <cx:f>_xlchart.v1.8</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -811,7 +881,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{E6D1ED59-CCC9-4703-95E6-01A82BBCB05C}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.1</cx:f>
+              <cx:f>_xlchart.v1.7</cx:f>
               <cx:v>Soma de TOTAL DE CASOS</cx:v>
             </cx:txData>
           </cx:tx>
@@ -914,10 +984,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.12</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.5</cx:f>
+        <cx:f>_xlchart.v1.14</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -955,7 +1025,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{50FC7C98-132A-47F7-832B-FB4688A5D6BB}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.4</cx:f>
+              <cx:f>_xlchart.v1.13</cx:f>
               <cx:v>Soma de TOTAL DE CASOS</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1025,7 +1095,7 @@
         <cx:title>
           <cx:tx>
             <cx:txData>
-              <cx:v>Frequência (Estados)</cx:v>
+              <cx:v>Frequência (Número de Estados)</cx:v>
             </cx:txData>
           </cx:tx>
           <cx:txPr>
@@ -1045,7 +1115,7 @@
                   </a:solidFill>
                   <a:latin typeface="Calibri" panose="020F0502020204030204"/>
                 </a:rPr>
-                <a:t>Frequência (Estados)</a:t>
+                <a:t>Frequência (Número de Estados)</a:t>
               </a:r>
             </a:p>
           </cx:txPr>
@@ -1072,81 +1142,55 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
+  <a:schemeClr val="dk1"/>
   <cs:variation>
-    <a:lumMod val="60000"/>
+    <a:tint val="88500"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
+    <a:tint val="55000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="80000"/>
+    <a:tint val="75000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
+    <a:tint val="98500"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="50000"/>
+    <a:tint val="30000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
+    <a:tint val="60000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
+    <a:tint val="80000"/>
   </cs:variation>
 </cs:colorStyle>
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
+  <a:schemeClr val="dk1"/>
   <cs:variation>
-    <a:lumMod val="60000"/>
+    <a:tint val="88500"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
+    <a:tint val="55000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="80000"/>
+    <a:tint val="75000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
+    <a:tint val="98500"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="50000"/>
+    <a:tint val="30000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
+    <a:tint val="60000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
+    <a:tint val="80000"/>
   </cs:variation>
 </cs:colorStyle>
 </file>
@@ -2171,16 +2215,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>157162</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>157163</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>4082</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>461962</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -2216,8 +2260,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2071687" y="142875"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="2252663" y="1528082"/>
+              <a:ext cx="6121054" cy="3234417"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2254,16 +2298,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -2299,8 +2343,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2009775" y="104775"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="2238375" y="1343025"/>
+              <a:ext cx="6105525" cy="3257550"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -7202,20 +7246,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C87B600-0FA1-4515-A8F0-9A0793372D7E}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="2.7109375" customWidth="1"/>
+    <col min="5" max="6" width="45.7109375" customWidth="1"/>
+    <col min="7" max="7" width="2.7109375" customWidth="1"/>
     <col min="12" max="12" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>45</v>
       </c>
@@ -7223,103 +7270,247 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>33</v>
       </c>
       <c r="B2" s="9">
         <v>11835</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>34</v>
       </c>
       <c r="B3" s="9">
         <v>10724</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D3" s="10"/>
+      <c r="E3" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="10"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>35</v>
       </c>
       <c r="B4" s="9">
         <v>13124</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D4" s="10"/>
+      <c r="E4" s="11">
+        <f>AVERAGE(B2:B13)</f>
+        <v>11286.083333333334</v>
+      </c>
+      <c r="F4" s="11">
+        <f>_xlfn.PERCENTILE.INC(B2:B13, 95%)</f>
+        <v>12558.05</v>
+      </c>
+      <c r="G4" s="10"/>
+    </row>
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B5" s="9">
         <v>12059</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D5" s="10"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="10"/>
+    </row>
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>37</v>
       </c>
       <c r="B6" s="9">
         <v>12095</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D6" s="10"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="10"/>
+    </row>
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>38</v>
       </c>
       <c r="B7" s="9">
         <v>10677</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D7" s="10"/>
+      <c r="E7" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="10"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>39</v>
       </c>
       <c r="B8" s="9">
         <v>9989</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>40</v>
       </c>
       <c r="B9" s="9">
         <v>10623</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B10" s="9">
         <v>10861</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>42</v>
       </c>
       <c r="B11" s="9">
         <v>11361</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>43</v>
       </c>
       <c r="B12" s="9">
         <v>11391</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>44</v>
       </c>
       <c r="B13" s="9">
         <v>10694</v>
       </c>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+    </row>
+    <row r="17" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+    </row>
+    <row r="18" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+    </row>
+    <row r="19" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+    </row>
+    <row r="20" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+    </row>
+    <row r="21" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+    </row>
+    <row r="22" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+    </row>
+    <row r="23" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+    </row>
+    <row r="24" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+    </row>
+    <row r="25" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+    </row>
+    <row r="26" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="F4:F6"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -7329,18 +7520,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24801BE6-97A3-4C12-9618-A5EABD23D5DC}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="2.7109375" customWidth="1"/>
+    <col min="5" max="6" width="45.7109375" customWidth="1"/>
+    <col min="7" max="7" width="2.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>28</v>
       </c>
@@ -7348,125 +7541,199 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="6">
         <v>638</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="6">
         <v>1683</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D3" s="10"/>
+      <c r="E3" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="10"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="6">
         <v>1205</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D4" s="10"/>
+      <c r="E4" s="11">
+        <f>AVERAGE(B2:B28)</f>
+        <v>5016.0370370370374</v>
+      </c>
+      <c r="F4" s="11">
+        <f>_xlfn.PERCENTILE.INC(B2:B28, 95%)</f>
+        <v>19452.299999999996</v>
+      </c>
+      <c r="G4" s="10"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B5" s="6">
         <v>270</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D5" s="10"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="10"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="6">
         <v>12528</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D6" s="10"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="10"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B7" s="6">
         <v>7794</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D7" s="10"/>
+      <c r="E7" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="10"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B8" s="6">
         <v>1283</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="6">
         <v>2670</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B10" s="6">
         <v>942</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B11" s="6">
         <v>4996</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B12" s="6">
         <v>4368</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B13" s="6">
         <v>374</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B14" s="6">
         <v>1077</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="6">
         <v>1530</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B16" s="6">
         <v>3647</v>
       </c>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
@@ -7475,12 +7742,10 @@
       <c r="B17" s="6">
         <v>12929</v>
       </c>
-      <c r="E17" t="s">
-        <v>46</v>
-      </c>
-      <c r="G17" t="s">
-        <v>47</v>
-      </c>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
@@ -7489,6 +7754,10 @@
       <c r="B18" s="6">
         <v>4544</v>
       </c>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
@@ -7497,6 +7766,10 @@
       <c r="B19" s="6">
         <v>3021</v>
       </c>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
@@ -7505,6 +7778,10 @@
       <c r="B20" s="6">
         <v>22248</v>
       </c>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
@@ -7513,6 +7790,10 @@
       <c r="B21" s="6">
         <v>3313</v>
       </c>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
@@ -7521,6 +7802,10 @@
       <c r="B22" s="6">
         <v>969</v>
       </c>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
@@ -7529,6 +7814,10 @@
       <c r="B23" s="6">
         <v>285</v>
       </c>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
@@ -7537,6 +7826,10 @@
       <c r="B24" s="6">
         <v>3594</v>
       </c>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
@@ -7545,6 +7838,10 @@
       <c r="B25" s="6">
         <v>1071</v>
       </c>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
@@ -7553,6 +7850,10 @@
       <c r="B26" s="6">
         <v>774</v>
       </c>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
@@ -7571,6 +7872,10 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="F4:F6"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
 </worksheet>
